--- a/AAII_Financials/Quarterly/GAU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GAU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>GAU</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,63 +665,67 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -736,13 +740,16 @@
         <v>0</v>
       </c>
       <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>30700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>66800</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -764,14 +771,17 @@
       <c r="I9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="3">
         <v>33400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>50700</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -793,14 +803,17 @@
       <c r="I10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="3">
         <v>-2700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -835,14 +849,17 @@
       <c r="I12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="3">
         <v>400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,16 +887,19 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -887,20 +907,23 @@
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-1300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>144600</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +951,11 @@
       <c r="K15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +964,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E17" s="3">
         <v>-19100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>127800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>-3800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>34400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>200300</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-127800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-8000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-133500</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,66 +1042,73 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="3">
         <v>-20100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-19800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3">
         <v>-21200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-147500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>6100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-5300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>10600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-116500</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1090,51 +1130,57 @@
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E23" s="3">
         <v>21800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-21200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-147500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>6100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-138600</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
+      <c r="E24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1149,13 +1195,16 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E26" s="3">
         <v>21800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-21200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-147500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>6100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-141900</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E27" s="3">
         <v>21800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-21200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-147500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>6100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-5300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-142300</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1424,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="3">
         <v>20100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>19800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E33" s="3">
         <v>21800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-21200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-147500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>6100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-5300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-142300</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E35" s="3">
         <v>21800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-21200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-147500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>6100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-5300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-142300</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,37 +1619,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>64900</v>
+      </c>
+      <c r="E41" s="3">
         <v>50600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>31100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>13600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>10400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>14300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>18800</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,37 +1681,43 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,100 +1745,112 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>300</v>
+      </c>
+      <c r="E45" s="3">
         <v>500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>539300</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>68200</v>
+      </c>
+      <c r="E46" s="3">
         <v>54100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>35800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>17100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>8600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>9600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>13100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>15900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>559000</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>110600</v>
+      </c>
+      <c r="E47" s="3">
         <v>108700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>108000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>148100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>304000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>295600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>299400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>298400</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E48" s="3">
         <v>700</v>
@@ -1751,7 +1859,7 @@
         <v>700</v>
       </c>
       <c r="G48" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="H48" s="3">
         <v>100</v>
@@ -1765,8 +1873,11 @@
       <c r="K48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1794,8 +1905,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,8 +1969,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1881,8 +2001,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2033,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>179400</v>
+      </c>
+      <c r="E54" s="3">
         <v>163500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>144500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>166000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>312700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>305300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>312600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>314400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>559100</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,37 +2095,41 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E57" s="3">
         <v>1500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2008,14 +2142,14 @@
       <c r="F58" s="3">
         <v>100</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
+      <c r="G58" s="3">
+        <v>100</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -2023,66 +2157,75 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L59" s="3">
         <v>241800</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E60" s="3">
         <v>1600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>247600</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2096,7 +2239,7 @@
         <v>500</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2110,37 +2253,43 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>300</v>
+      </c>
+      <c r="E62" s="3">
         <v>500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>400</v>
-      </c>
-      <c r="F62" s="3">
-        <v>300</v>
       </c>
       <c r="G62" s="3">
         <v>300</v>
       </c>
       <c r="H62" s="3">
+        <v>300</v>
+      </c>
+      <c r="I62" s="3">
         <v>100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2381,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E66" s="3">
         <v>2600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>249400</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-400600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-415400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-437100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-416200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-268800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-275200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-270000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-269300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-269200</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>176100</v>
+      </c>
+      <c r="E76" s="3">
         <v>160900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>141300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>163100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>310000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>303700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>308800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>309500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>309700</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E81" s="3">
         <v>21800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-21200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-147500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>6100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-5300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-142300</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,8 +2832,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2658,13 +2857,16 @@
         <v>0</v>
       </c>
       <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
         <v>11700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>16900</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>13400</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,8 +3070,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2874,13 +3095,16 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-4300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-22900</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3164,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E94" s="3">
         <v>22500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>20100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>10000</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-26400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>158100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-22900</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,23 +3338,26 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -3119,22 +3365,25 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-164900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
@@ -3148,38 +3397,44 @@
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E102" s="3">
         <v>19500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>17500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>6800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-28300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GAU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GAU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>GAU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,59 +665,63 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -727,8 +731,8 @@
       <c r="E8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
+      <c r="F8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -743,13 +747,16 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>30700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>66800</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -774,14 +781,17 @@
       <c r="J9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="3">
         <v>33400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>50700</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -806,14 +816,17 @@
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="3">
         <v>-2700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,8 +839,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -852,14 +866,17 @@
       <c r="J12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="3">
         <v>400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,8 +907,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -901,8 +921,8 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -910,20 +930,23 @@
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-1300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>144600</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,8 +977,11 @@
       <c r="L15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,40 +991,44 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E17" s="3">
         <v>-12000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>-19100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>127800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>-3800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>34400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>200300</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1008,29 +1038,32 @@
       <c r="E18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-127800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-8000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-133500</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,8 +1076,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1054,29 +1088,32 @@
       <c r="E20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="3">
         <v>-20100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-19800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1086,29 +1123,32 @@
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3">
         <v>-21200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-147500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>6100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-5300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>10600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-116500</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1133,46 +1173,52 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E23" s="3">
         <v>14700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>21800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-21200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-147500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>6100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-138600</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1182,8 +1228,8 @@
       <c r="E24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
+      <c r="F24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1198,13 +1244,16 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1284,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E26" s="3">
         <v>14700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>21800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-21200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-147500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>6100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-141900</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E27" s="3">
         <v>14700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>21800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-21200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-147500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>6100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-142300</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1389,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1424,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1459,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,8 +1494,11 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1438,61 +1508,67 @@
       <c r="E32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="3">
         <v>20100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>19800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E33" s="3">
         <v>14700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>21800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-21200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-147500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>6100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-142300</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1599,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E35" s="3">
         <v>14700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>21800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-21200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-147500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>6100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-142300</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1691,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,40 +1706,44 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>63500</v>
+      </c>
+      <c r="E41" s="3">
         <v>64900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>50600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>31100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>13600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>10400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>14300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>18800</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,40 +1774,46 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E43" s="3">
         <v>3000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,104 +1844,116 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E45" s="3">
         <v>300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>539300</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>67400</v>
+      </c>
+      <c r="E46" s="3">
         <v>68200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>54100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>35800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>17100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>8600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>9600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>13100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>15900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>559000</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>117600</v>
+      </c>
+      <c r="E47" s="3">
         <v>110600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>108700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>108000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>148100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>304000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>295600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>299400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>298400</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1853,7 +1961,7 @@
         <v>600</v>
       </c>
       <c r="E48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F48" s="3">
         <v>700</v>
@@ -1862,7 +1970,7 @@
         <v>700</v>
       </c>
       <c r="H48" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="I48" s="3">
         <v>100</v>
@@ -1876,8 +1984,11 @@
       <c r="L48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1908,8 +2019,11 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2054,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,8 +2089,11 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2004,8 +2124,11 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,40 +2159,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>185600</v>
+      </c>
+      <c r="E54" s="3">
         <v>179400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>163500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>144500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>166000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>312700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>305300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>312600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>314400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>559100</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2211,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,40 +2226,44 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E57" s="3">
         <v>2500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2145,14 +2279,14 @@
       <c r="G58" s="3">
         <v>100</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
+      <c r="H58" s="3">
+        <v>100</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
+      <c r="J58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2160,8 +2294,11 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2186,46 +2323,52 @@
       <c r="J59" s="3">
         <v>0</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M59" s="3">
         <v>241800</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E60" s="3">
         <v>2600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>247600</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2242,7 +2385,7 @@
         <v>500</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2256,40 +2399,46 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>500</v>
+      </c>
+      <c r="E62" s="3">
         <v>300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>400</v>
-      </c>
-      <c r="G62" s="3">
-        <v>300</v>
       </c>
       <c r="H62" s="3">
         <v>300</v>
       </c>
       <c r="I62" s="3">
+        <v>300</v>
+      </c>
+      <c r="J62" s="3">
         <v>100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2469,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2504,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2539,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E66" s="3">
         <v>3400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>249400</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2591,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2624,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2659,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2694,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +2729,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-397700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-400600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-415400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-437100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-416200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-268800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-275200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-270000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-269300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-269200</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2799,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2834,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +2869,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>180800</v>
+      </c>
+      <c r="E76" s="3">
         <v>176100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>160900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>141300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>163100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>310000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>303700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>308800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>309500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>309700</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +2939,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E81" s="3">
         <v>14700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>21800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-21200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-147500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>6100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-142300</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,8 +3031,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2860,13 +3059,16 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
         <v>11700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>16900</v>
       </c>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3099,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3134,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3169,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3204,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,40 +3239,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>13400</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,8 +3291,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3098,13 +3319,16 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-4300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-22900</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3359,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,40 +3394,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>200</v>
+      </c>
+      <c r="E94" s="3">
         <v>15200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>22500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>20100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>10000</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-26400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>158100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-22900</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3446,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3479,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3514,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3549,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,26 +3584,29 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -3368,25 +3614,28 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-164900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
@@ -3400,41 +3649,47 @@
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E102" s="3">
         <v>14400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>19500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>17500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>6800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-28300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GAU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GAU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
   <si>
     <t>GAU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,63 +665,66 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -734,8 +737,8 @@
       <c r="F8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -750,13 +753,16 @@
         <v>0</v>
       </c>
       <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
         <v>30700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>66800</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -784,14 +790,17 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3">
         <v>33400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>50700</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -819,14 +828,17 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3">
         <v>-2700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,8 +852,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -869,14 +882,17 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="3">
         <v>400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,8 +926,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -924,8 +943,8 @@
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -933,20 +952,23 @@
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-1300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>144600</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1002,11 @@
       <c r="M15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,43 +1017,47 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="E17" s="3">
         <v>-1600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>-12000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>-19100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>127800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>-3800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>8000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>34400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>200300</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1041,29 +1070,32 @@
       <c r="F18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3">
         <v>-1100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-127800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-8000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-133500</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,8 +1109,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1091,29 +1124,32 @@
       <c r="F20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="3">
         <v>-20100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-19800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1126,29 +1162,32 @@
       <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3">
         <v>-21200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-147500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>6100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-5300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>10600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-116500</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1176,49 +1215,55 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N22" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E23" s="3">
         <v>3200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>14700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>21800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-21200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-147500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>6100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-138600</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1231,8 +1276,8 @@
       <c r="F24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
+      <c r="G24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1247,13 +1292,16 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1335,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E26" s="3">
         <v>3200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>14700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>21800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-21200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-147500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>6100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-141900</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E27" s="3">
         <v>3200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>14700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>21800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-21200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-147500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>6100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-142300</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1449,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1487,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1525,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,8 +1563,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1511,64 +1580,70 @@
       <c r="F32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="3">
         <v>20100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>19800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E33" s="3">
         <v>3200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>14700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>21800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-21200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-147500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>6100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-142300</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1677,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E35" s="3">
         <v>3200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>14700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>21800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-21200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-147500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>6100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-142300</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1776,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,43 +1792,47 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>62200</v>
+      </c>
+      <c r="E41" s="3">
         <v>63500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>64900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>50600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>31100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>13600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>14300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>18800</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,8 +1866,11 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1786,34 +1878,37 @@
         <v>2900</v>
       </c>
       <c r="E43" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F43" s="3">
         <v>3000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,113 +1942,125 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>500</v>
+      </c>
+      <c r="E45" s="3">
         <v>1100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>539300</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>65500</v>
+      </c>
+      <c r="E46" s="3">
         <v>67400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>68200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>54100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>35800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>17100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>8600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>9600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>13100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>15900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>559000</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>137500</v>
+      </c>
+      <c r="E47" s="3">
         <v>117600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>110600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>108700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>108000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>148100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>304000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>295600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>299400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>298400</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1964,7 +2071,7 @@
         <v>600</v>
       </c>
       <c r="F48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G48" s="3">
         <v>700</v>
@@ -1973,7 +2080,7 @@
         <v>700</v>
       </c>
       <c r="I48" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="J48" s="3">
         <v>100</v>
@@ -1987,8 +2094,11 @@
       <c r="M48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2022,8 +2132,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2170,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,8 +2208,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2127,8 +2246,11 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,43 +2284,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>203600</v>
+      </c>
+      <c r="E54" s="3">
         <v>185600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>179400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>163500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>144500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>166000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>312700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>305300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>312600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>314400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>559100</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2340,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,43 +2356,47 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E57" s="3">
         <v>3900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2282,14 +2415,14 @@
       <c r="H58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
+      <c r="I58" s="3">
+        <v>100</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -2297,8 +2430,11 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2326,54 +2462,60 @@
       <c r="K59" s="3">
         <v>0</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N59" s="3">
         <v>241800</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E60" s="3">
         <v>3900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>247600</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E61" s="3">
         <v>500</v>
@@ -2388,7 +2530,7 @@
         <v>500</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2402,43 +2544,49 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>700</v>
+      </c>
+      <c r="E62" s="3">
         <v>500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>400</v>
-      </c>
-      <c r="H62" s="3">
-        <v>300</v>
       </c>
       <c r="I62" s="3">
         <v>300</v>
       </c>
       <c r="J62" s="3">
+        <v>300</v>
+      </c>
+      <c r="K62" s="3">
         <v>100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2620,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2658,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,43 +2696,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E66" s="3">
         <v>4900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>249400</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2752,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2788,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2826,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2864,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +2902,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-397700</v>
+        <v>-429800</v>
       </c>
       <c r="E72" s="3">
-        <v>-400600</v>
+        <v>-447500</v>
       </c>
       <c r="F72" s="3">
-        <v>-415400</v>
+        <v>-450700</v>
       </c>
       <c r="G72" s="3">
-        <v>-437100</v>
+        <v>-465400</v>
       </c>
       <c r="H72" s="3">
-        <v>-416200</v>
+        <v>-487200</v>
       </c>
       <c r="I72" s="3">
-        <v>-268800</v>
+        <v>-466000</v>
       </c>
       <c r="J72" s="3">
+        <v>-318500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-275200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-270000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-269300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-269200</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2978,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3016,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3054,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>198900</v>
+      </c>
+      <c r="E76" s="3">
         <v>180800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>176100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>160900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>141300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>163100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>310000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>303700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>308800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>309500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>309700</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3130,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E81" s="3">
         <v>3200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>14700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>21800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-21200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-147500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>6100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-142300</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,8 +3229,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3062,13 +3260,16 @@
         <v>0</v>
       </c>
       <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
         <v>11700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>16900</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3303,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3341,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3379,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3417,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3455,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>13400</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,8 +3511,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3322,13 +3542,16 @@
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-4300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-22900</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3585,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,43 +3623,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>15200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>22500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>20100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>10000</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-26400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>158100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-22900</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3679,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3715,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3753,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3791,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,29 +3829,32 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>1300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
@@ -3617,28 +3862,31 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-164900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
@@ -3652,44 +3900,50 @@
         <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>14400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>19500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>17500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>6800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-28300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GAU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GAU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
   <si>
     <t>GAU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,66 +665,70 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -740,8 +744,8 @@
       <c r="G8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
+      <c r="H8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -756,13 +760,16 @@
         <v>0</v>
       </c>
       <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <v>30700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>66800</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -793,14 +800,17 @@
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3">
         <v>33400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>50700</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -831,14 +841,17 @@
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3">
         <v>-2700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,8 +866,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -885,14 +899,17 @@
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="3">
         <v>400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,8 +946,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -946,8 +966,8 @@
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -955,43 +975,46 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-1300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>144600</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>4</v>
@@ -1005,8 +1028,11 @@
       <c r="N15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,46 +1044,50 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="E17" s="3">
         <v>-16600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>-1600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>-12000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>-19100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>127800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>-3800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>34400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>200300</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1073,29 +1103,32 @@
       <c r="G18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3">
         <v>-1100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-127800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-8000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-133500</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,8 +1143,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1127,29 +1161,32 @@
       <c r="G20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="3">
         <v>-20100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-19800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1165,34 +1202,37 @@
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3">
         <v>-21200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-147500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>6100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-5300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>10600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-116500</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1218,52 +1258,58 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E23" s="3">
         <v>17700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>14700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>21800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-21200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-147500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>6100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-138600</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1279,8 +1325,8 @@
       <c r="G24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
+      <c r="H24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1295,13 +1341,16 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E26" s="3">
         <v>17700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>14700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>21800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-21200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-147500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>6100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-141900</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E27" s="3">
         <v>17700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>14700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>21800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-21200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-147500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>6100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-5300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-142300</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,8 +1633,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1583,67 +1653,73 @@
       <c r="G32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="3">
         <v>20100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>19800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E33" s="3">
         <v>17700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>14700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>21800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-21200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-147500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>6100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-142300</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E35" s="3">
         <v>17700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>14700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>21800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-21200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-147500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>6100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-142300</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,46 +1879,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>61200</v>
+      </c>
+      <c r="E41" s="3">
         <v>62200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>63500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>64900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>50600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>31100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>13600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>14300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>18800</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1869,46 +1959,52 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2900</v>
+        <v>3800</v>
       </c>
       <c r="E43" s="3">
         <v>2900</v>
       </c>
       <c r="F43" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G43" s="3">
         <v>3000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1945,8 +2041,11 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1954,37 +2053,40 @@
         <v>500</v>
       </c>
       <c r="E45" s="3">
+        <v>500</v>
+      </c>
+      <c r="F45" s="3">
         <v>1100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>539300</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1992,80 +2094,86 @@
         <v>65500</v>
       </c>
       <c r="E46" s="3">
+        <v>65500</v>
+      </c>
+      <c r="F46" s="3">
         <v>67400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>68200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>54100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>35800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>17100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>8600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>13100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>15900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>559000</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>148200</v>
+      </c>
+      <c r="E47" s="3">
         <v>137500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>117600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>110600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>108700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>108000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>148100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>304000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>295600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>299400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>298400</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>600</v>
+        <v>2200</v>
       </c>
       <c r="E48" s="3">
         <v>600</v>
@@ -2074,7 +2182,7 @@
         <v>600</v>
       </c>
       <c r="G48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H48" s="3">
         <v>700</v>
@@ -2083,7 +2191,7 @@
         <v>700</v>
       </c>
       <c r="J48" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="K48" s="3">
         <v>100</v>
@@ -2097,8 +2205,11 @@
       <c r="N48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2135,8 +2246,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,8 +2328,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2249,8 +2369,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,46 +2410,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>215800</v>
+      </c>
+      <c r="E54" s="3">
         <v>203600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>185600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>179400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>163500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>144500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>166000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>312700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>305300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>312600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>314400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>559100</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,46 +2487,50 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E57" s="3">
         <v>3500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2418,14 +2552,14 @@
       <c r="I58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
+      <c r="J58" s="3">
+        <v>100</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -2433,8 +2567,11 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2465,52 +2602,58 @@
       <c r="L59" s="3">
         <v>0</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O59" s="3">
         <v>241800</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E60" s="3">
         <v>3600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>247600</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2518,7 +2661,7 @@
         <v>400</v>
       </c>
       <c r="E61" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F61" s="3">
         <v>500</v>
@@ -2533,7 +2676,7 @@
         <v>500</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2547,46 +2690,52 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>400</v>
+      </c>
+      <c r="E62" s="3">
         <v>700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>400</v>
-      </c>
-      <c r="I62" s="3">
-        <v>300</v>
       </c>
       <c r="J62" s="3">
         <v>300</v>
       </c>
       <c r="K62" s="3">
+        <v>300</v>
+      </c>
+      <c r="L62" s="3">
         <v>100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,46 +2854,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E66" s="3">
         <v>4700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>249400</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,46 +3076,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-416800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-429800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-447500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-450700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-465400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-487200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-466000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-318500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-275200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-270000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-269300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-269200</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,46 +3240,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>212400</v>
+      </c>
+      <c r="E76" s="3">
         <v>198900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>180800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>176100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>160900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>141300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>163100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>310000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>303700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>308800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>309500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>309700</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E81" s="3">
         <v>17700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>14700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>21800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-21200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-147500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>6100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-142300</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,8 +3428,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3263,13 +3462,16 @@
         <v>0</v>
       </c>
       <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
         <v>11700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>16900</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,46 +3672,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>13400</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,8 +3732,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3545,13 +3766,16 @@
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-4300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-22900</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,46 +3853,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>15200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>22500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>20100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>10000</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-26400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>158100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-22900</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,32 +4075,35 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -3865,31 +4111,34 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-164900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
@@ -3903,47 +4152,53 @@
         <v>0</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>14400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>19500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>17500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>6800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-28300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GAU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GAU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
   <si>
     <t>GAU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,70 +665,74 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -747,8 +751,8 @@
       <c r="H8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
+      <c r="I8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
@@ -763,13 +767,16 @@
         <v>0</v>
       </c>
       <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
         <v>30700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>66800</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -803,14 +810,17 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3">
         <v>33400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>50700</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -844,14 +854,17 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3">
         <v>-2700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,13 +880,14 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>4</v>
+      <c r="D12" s="3">
+        <v>400</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>4</v>
@@ -902,14 +916,17 @@
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="3">
         <v>400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -969,8 +989,8 @@
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -978,20 +998,23 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-1300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>144600</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1016,8 +1039,8 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>4</v>
@@ -1031,8 +1054,11 @@
       <c r="O15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,49 +1071,53 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E17" s="3">
         <v>-10700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>-16600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>-1600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>-12000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>-19100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>127800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>-3800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>34400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>200300</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1106,29 +1136,32 @@
       <c r="H18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3">
         <v>-1100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-127800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-8000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-133500</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,8 +1177,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1164,29 +1198,32 @@
       <c r="H20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="3">
         <v>-20100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-19800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1205,37 +1242,40 @@
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3">
         <v>-21200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-147500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>6100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-5300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>10600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-116500</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1261,55 +1301,61 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P22" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E23" s="3">
         <v>13000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>17700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>14700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>21800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-21200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-147500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-138600</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1328,8 +1374,8 @@
       <c r="H24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
+      <c r="I24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -1344,13 +1390,16 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E26" s="3">
         <v>13000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>17700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>14700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>21800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-21200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-147500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>6100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-141900</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E27" s="3">
         <v>13000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>17700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>14700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>21800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-21200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-147500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>6100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-5300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-142300</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,8 +1703,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1656,70 +1726,76 @@
       <c r="H32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="3">
         <v>20100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>19800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E33" s="3">
         <v>13000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>17700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>14700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>21800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-21200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-147500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>6100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-142300</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E35" s="3">
         <v>13000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>17700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>14700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>21800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-21200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-147500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>6100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-142300</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,49 +1966,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>58500</v>
+      </c>
+      <c r="E41" s="3">
         <v>61200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>62200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>63500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>64900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>50600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>31100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>13600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>14300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>18800</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,49 +2052,55 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E43" s="3">
         <v>3800</v>
-      </c>
-      <c r="E43" s="3">
-        <v>2900</v>
       </c>
       <c r="F43" s="3">
         <v>2900</v>
       </c>
       <c r="G43" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H43" s="3">
         <v>3000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2044,131 +2140,143 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
         <v>500</v>
       </c>
       <c r="F45" s="3">
+        <v>500</v>
+      </c>
+      <c r="G45" s="3">
         <v>1100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>539300</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>65500</v>
+        <v>63700</v>
       </c>
       <c r="E46" s="3">
         <v>65500</v>
       </c>
       <c r="F46" s="3">
+        <v>65500</v>
+      </c>
+      <c r="G46" s="3">
         <v>67400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>68200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>54100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>35800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>17100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>13100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>15900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>559000</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>156000</v>
+      </c>
+      <c r="E47" s="3">
         <v>148200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>137500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>117600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>110600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>108700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>108000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>148100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>304000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>295600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>299400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>298400</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2176,7 +2284,7 @@
         <v>2200</v>
       </c>
       <c r="E48" s="3">
-        <v>600</v>
+        <v>2200</v>
       </c>
       <c r="F48" s="3">
         <v>600</v>
@@ -2185,7 +2293,7 @@
         <v>600</v>
       </c>
       <c r="H48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I48" s="3">
         <v>700</v>
@@ -2194,7 +2302,7 @@
         <v>700</v>
       </c>
       <c r="K48" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="L48" s="3">
         <v>100</v>
@@ -2208,8 +2316,11 @@
       <c r="O48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2249,8 +2360,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,8 +2448,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2372,8 +2492,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,49 +2536,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>221800</v>
+      </c>
+      <c r="E54" s="3">
         <v>215800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>203600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>185600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>179400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>163500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>144500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>166000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>312700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>305300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>312600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>314400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>559100</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,49 +2618,53 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E57" s="3">
         <v>2500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2555,14 +2689,14 @@
       <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
+      <c r="K58" s="3">
+        <v>100</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -2570,8 +2704,11 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2605,55 +2742,61 @@
       <c r="M59" s="3">
         <v>0</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P59" s="3">
         <v>241800</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E60" s="3">
         <v>2600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>247600</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2664,7 +2807,7 @@
         <v>400</v>
       </c>
       <c r="F61" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G61" s="3">
         <v>500</v>
@@ -2679,7 +2822,7 @@
         <v>500</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="L61" s="3">
         <v>0</v>
@@ -2693,49 +2836,55 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>500</v>
+      </c>
+      <c r="E62" s="3">
         <v>400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>400</v>
-      </c>
-      <c r="J62" s="3">
-        <v>300</v>
       </c>
       <c r="K62" s="3">
         <v>300</v>
       </c>
       <c r="L62" s="3">
+        <v>300</v>
+      </c>
+      <c r="M62" s="3">
         <v>100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,49 +3012,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E66" s="3">
         <v>3400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>249400</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-411800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-416800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-429800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-447500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-450700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-465400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-487200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-466000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-318500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-275200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-270000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-269300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-269200</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>218200</v>
+      </c>
+      <c r="E76" s="3">
         <v>212400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>198900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>180800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>176100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>160900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>141300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>163100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>310000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>303700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>308800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>309500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>309700</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E81" s="3">
         <v>13000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>17700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>14700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>21800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-21200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-147500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>6100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-142300</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3627,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3465,13 +3664,16 @@
         <v>0</v>
       </c>
       <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
         <v>11700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>16900</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>13400</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,8 +3953,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3769,13 +3990,16 @@
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-4300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-22900</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,49 +4083,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>300</v>
+      </c>
+      <c r="E94" s="3">
         <v>3500</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>15200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>22500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>20100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>10000</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-26400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>158100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-22900</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,35 +4321,38 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -4114,13 +4360,16 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-164900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4128,20 +4377,20 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
@@ -4155,50 +4404,56 @@
         <v>0</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>14400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>19500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>17500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>6800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-28300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GAU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GAU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
   <si>
     <t>GAU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,78 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -754,8 +758,8 @@
       <c r="I8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
+      <c r="J8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -770,13 +774,16 @@
         <v>0</v>
       </c>
       <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
         <v>30700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>66800</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -813,14 +820,17 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3">
         <v>33400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>50700</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -857,14 +867,17 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3">
         <v>-2700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,52 +894,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E12" s="3">
+        <v>500</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3">
         <v>400</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O12" s="3">
-        <v>400</v>
-      </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -992,8 +1012,8 @@
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1001,20 +1021,23 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>-1300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>144600</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1042,8 +1065,8 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>4</v>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,52 +1098,56 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>-2800</v>
+      <c r="D17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E17" s="3">
-        <v>-10700</v>
+        <v>-3600</v>
       </c>
       <c r="F17" s="3">
-        <v>-16600</v>
+        <v>-13600</v>
       </c>
       <c r="G17" s="3">
-        <v>-1600</v>
+        <v>-21100</v>
       </c>
       <c r="H17" s="3">
-        <v>-12000</v>
+        <v>-2100</v>
       </c>
       <c r="I17" s="3">
-        <v>-19100</v>
+        <v>-15300</v>
       </c>
       <c r="J17" s="3">
+        <v>-24300</v>
+      </c>
+      <c r="K17" s="3">
         <v>1100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>127800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>-3800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>34400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>200300</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1139,29 +1169,32 @@
       <c r="I18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-127800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-8000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-133500</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1211,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1201,29 +1235,32 @@
       <c r="I20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="3">
         <v>-20100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-19800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1245,29 +1282,32 @@
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
         <v>-21200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-147500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>6100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-5300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>10600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-116500</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1277,8 +1317,8 @@
       <c r="E22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1304,58 +1344,64 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P22" s="3">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>5000</v>
+      <c r="D23" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E23" s="3">
-        <v>13000</v>
+        <v>6400</v>
       </c>
       <c r="F23" s="3">
-        <v>17700</v>
+        <v>16600</v>
       </c>
       <c r="G23" s="3">
-        <v>3200</v>
+        <v>22500</v>
       </c>
       <c r="H23" s="3">
-        <v>14700</v>
+        <v>4100</v>
       </c>
       <c r="I23" s="3">
-        <v>21800</v>
+        <v>18700</v>
       </c>
       <c r="J23" s="3">
+        <v>27800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-21200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-147500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>6100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-138600</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1377,8 +1423,8 @@
       <c r="I24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="J24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1393,13 +1439,16 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>5000</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="3">
-        <v>13000</v>
+        <v>6400</v>
       </c>
       <c r="F26" s="3">
-        <v>17700</v>
+        <v>16600</v>
       </c>
       <c r="G26" s="3">
-        <v>3200</v>
+        <v>22500</v>
       </c>
       <c r="H26" s="3">
-        <v>14700</v>
+        <v>4100</v>
       </c>
       <c r="I26" s="3">
-        <v>21800</v>
+        <v>18700</v>
       </c>
       <c r="J26" s="3">
+        <v>27800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-21200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-147500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>6100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-141900</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>5000</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="3">
-        <v>13000</v>
+        <v>6400</v>
       </c>
       <c r="F27" s="3">
-        <v>17700</v>
+        <v>16600</v>
       </c>
       <c r="G27" s="3">
-        <v>3200</v>
+        <v>22500</v>
       </c>
       <c r="H27" s="3">
-        <v>14700</v>
+        <v>4100</v>
       </c>
       <c r="I27" s="3">
-        <v>21800</v>
+        <v>18700</v>
       </c>
       <c r="J27" s="3">
+        <v>27800</v>
+      </c>
+      <c r="K27" s="3">
         <v>-21200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-147500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>6100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-5300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-142300</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1773,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1729,73 +1799,79 @@
       <c r="I32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="3">
         <v>20100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>19800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>5000</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="3">
-        <v>13000</v>
+        <v>6400</v>
       </c>
       <c r="F33" s="3">
-        <v>17700</v>
+        <v>16600</v>
       </c>
       <c r="G33" s="3">
-        <v>3200</v>
+        <v>22500</v>
       </c>
       <c r="H33" s="3">
-        <v>14700</v>
+        <v>4100</v>
       </c>
       <c r="I33" s="3">
-        <v>21800</v>
+        <v>18700</v>
       </c>
       <c r="J33" s="3">
+        <v>27800</v>
+      </c>
+      <c r="K33" s="3">
         <v>-21200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-147500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>6100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-142300</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>5000</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E35" s="3">
-        <v>13000</v>
+        <v>6400</v>
       </c>
       <c r="F35" s="3">
-        <v>17700</v>
+        <v>16600</v>
       </c>
       <c r="G35" s="3">
-        <v>3200</v>
+        <v>22500</v>
       </c>
       <c r="H35" s="3">
-        <v>14700</v>
+        <v>4100</v>
       </c>
       <c r="I35" s="3">
-        <v>21800</v>
+        <v>18700</v>
       </c>
       <c r="J35" s="3">
+        <v>27800</v>
+      </c>
+      <c r="K35" s="3">
         <v>-21200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-147500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>6100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-142300</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2053,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>58500</v>
+        <v>71100</v>
       </c>
       <c r="E41" s="3">
-        <v>61200</v>
+        <v>74600</v>
       </c>
       <c r="F41" s="3">
-        <v>62200</v>
+        <v>78000</v>
       </c>
       <c r="G41" s="3">
-        <v>63500</v>
+        <v>79200</v>
       </c>
       <c r="H41" s="3">
-        <v>64900</v>
+        <v>80900</v>
       </c>
       <c r="I41" s="3">
-        <v>50600</v>
+        <v>82700</v>
       </c>
       <c r="J41" s="3">
+        <v>64500</v>
+      </c>
+      <c r="K41" s="3">
         <v>31100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>13600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>10400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>14300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>18800</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,52 +2145,58 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4900</v>
+        <v>7700</v>
       </c>
       <c r="E43" s="3">
-        <v>3800</v>
+        <v>6200</v>
       </c>
       <c r="F43" s="3">
-        <v>2900</v>
+        <v>4800</v>
       </c>
       <c r="G43" s="3">
-        <v>2900</v>
+        <v>3600</v>
       </c>
       <c r="H43" s="3">
-        <v>3000</v>
+        <v>3700</v>
       </c>
       <c r="I43" s="3">
+        <v>3900</v>
+      </c>
+      <c r="J43" s="3">
+        <v>3900</v>
+      </c>
+      <c r="K43" s="3">
+        <v>4300</v>
+      </c>
+      <c r="L43" s="3">
         <v>3100</v>
       </c>
-      <c r="J43" s="3">
-        <v>4300</v>
-      </c>
-      <c r="K43" s="3">
-        <v>3100</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,169 +2239,181 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>300</v>
+      </c>
+      <c r="F45" s="3">
+        <v>600</v>
+      </c>
+      <c r="G45" s="3">
+        <v>700</v>
+      </c>
+      <c r="H45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I45" s="3">
+        <v>300</v>
+      </c>
+      <c r="J45" s="3">
+        <v>600</v>
+      </c>
+      <c r="K45" s="3">
+        <v>300</v>
+      </c>
+      <c r="L45" s="3">
+        <v>400</v>
+      </c>
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
-        <v>500</v>
-      </c>
-      <c r="F45" s="3">
-        <v>500</v>
-      </c>
-      <c r="G45" s="3">
-        <v>1100</v>
-      </c>
-      <c r="H45" s="3">
+      <c r="N45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3">
-        <v>500</v>
-      </c>
-      <c r="J45" s="3">
+      <c r="O45" s="3">
+        <v>200</v>
+      </c>
+      <c r="P45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3">
-        <v>400</v>
-      </c>
-      <c r="L45" s="3">
-        <v>200</v>
-      </c>
-      <c r="M45" s="3">
-        <v>300</v>
-      </c>
-      <c r="N45" s="3">
-        <v>200</v>
-      </c>
-      <c r="O45" s="3">
-        <v>300</v>
-      </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>539300</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>63700</v>
+        <v>79900</v>
       </c>
       <c r="E46" s="3">
-        <v>65500</v>
+        <v>81100</v>
       </c>
       <c r="F46" s="3">
-        <v>65500</v>
+        <v>83400</v>
       </c>
       <c r="G46" s="3">
-        <v>67400</v>
+        <v>83500</v>
       </c>
       <c r="H46" s="3">
-        <v>68200</v>
+        <v>85900</v>
       </c>
       <c r="I46" s="3">
-        <v>54100</v>
+        <v>86900</v>
       </c>
       <c r="J46" s="3">
+        <v>69000</v>
+      </c>
+      <c r="K46" s="3">
         <v>35800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>17100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>13100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>15900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>559000</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>156000</v>
+        <v>205800</v>
       </c>
       <c r="E47" s="3">
-        <v>148200</v>
+        <v>198700</v>
       </c>
       <c r="F47" s="3">
-        <v>137500</v>
+        <v>188700</v>
       </c>
       <c r="G47" s="3">
-        <v>117600</v>
+        <v>175100</v>
       </c>
       <c r="H47" s="3">
-        <v>110600</v>
+        <v>149800</v>
       </c>
       <c r="I47" s="3">
-        <v>108700</v>
+        <v>140800</v>
       </c>
       <c r="J47" s="3">
+        <v>138500</v>
+      </c>
+      <c r="K47" s="3">
         <v>108000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>148100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>304000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>295600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>299400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>298400</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2200</v>
+        <v>2700</v>
       </c>
       <c r="E48" s="3">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="F48" s="3">
-        <v>600</v>
+        <v>2700</v>
       </c>
       <c r="G48" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="H48" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="I48" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="J48" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K48" s="3">
         <v>700</v>
       </c>
       <c r="L48" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="M48" s="3">
         <v>100</v>
@@ -2319,8 +2427,11 @@
       <c r="P48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2568,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2615,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>221800</v>
+        <v>288500</v>
       </c>
       <c r="E54" s="3">
-        <v>215800</v>
+        <v>282600</v>
       </c>
       <c r="F54" s="3">
-        <v>203600</v>
+        <v>274900</v>
       </c>
       <c r="G54" s="3">
-        <v>185600</v>
+        <v>259300</v>
       </c>
       <c r="H54" s="3">
-        <v>179400</v>
+        <v>236500</v>
       </c>
       <c r="I54" s="3">
-        <v>163500</v>
+        <v>228600</v>
       </c>
       <c r="J54" s="3">
+        <v>208300</v>
+      </c>
+      <c r="K54" s="3">
         <v>144500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>166000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>312700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>305300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>312600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>314400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>559100</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,52 +2749,56 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="E57" s="3">
-        <v>2500</v>
+        <v>3400</v>
       </c>
       <c r="F57" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G57" s="3">
+        <v>4500</v>
+      </c>
+      <c r="H57" s="3">
+        <v>4900</v>
+      </c>
+      <c r="I57" s="3">
+        <v>3200</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="L57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="N57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O57" s="3">
         <v>3500</v>
       </c>
-      <c r="G57" s="3">
-        <v>3900</v>
-      </c>
-      <c r="H57" s="3">
-        <v>2500</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1500</v>
-      </c>
-      <c r="J57" s="3">
-        <v>2200</v>
-      </c>
-      <c r="K57" s="3">
-        <v>1900</v>
-      </c>
-      <c r="L57" s="3">
-        <v>2400</v>
-      </c>
-      <c r="M57" s="3">
-        <v>1600</v>
-      </c>
-      <c r="N57" s="3">
-        <v>3500</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2692,14 +2826,14 @@
       <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
+      <c r="L58" s="3">
+        <v>100</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -2707,8 +2841,11 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2745,58 +2882,64 @@
       <c r="N59" s="3">
         <v>0</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q59" s="3">
         <v>241800</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2800</v>
+        <v>3700</v>
       </c>
       <c r="E60" s="3">
-        <v>2600</v>
+        <v>3600</v>
       </c>
       <c r="F60" s="3">
-        <v>3600</v>
+        <v>3300</v>
       </c>
       <c r="G60" s="3">
-        <v>3900</v>
+        <v>4600</v>
       </c>
       <c r="H60" s="3">
-        <v>2600</v>
+        <v>5000</v>
       </c>
       <c r="I60" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="L60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="N60" s="3">
         <v>1600</v>
       </c>
-      <c r="J60" s="3">
-        <v>2300</v>
-      </c>
-      <c r="K60" s="3">
-        <v>2000</v>
-      </c>
-      <c r="L60" s="3">
-        <v>2400</v>
-      </c>
-      <c r="M60" s="3">
-        <v>1600</v>
-      </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>247600</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2804,28 +2947,28 @@
         <v>400</v>
       </c>
       <c r="E61" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F61" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G61" s="3">
         <v>500</v>
       </c>
       <c r="H61" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I61" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J61" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K61" s="3">
         <v>500</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
@@ -2839,8 +2982,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2848,43 +2994,46 @@
         <v>500</v>
       </c>
       <c r="E62" s="3">
+        <v>600</v>
+      </c>
+      <c r="F62" s="3">
+        <v>500</v>
+      </c>
+      <c r="G62" s="3">
+        <v>900</v>
+      </c>
+      <c r="H62" s="3">
+        <v>600</v>
+      </c>
+      <c r="I62" s="3">
         <v>400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="J62" s="3">
         <v>700</v>
       </c>
-      <c r="G62" s="3">
-        <v>500</v>
-      </c>
-      <c r="H62" s="3">
-        <v>300</v>
-      </c>
-      <c r="I62" s="3">
-        <v>500</v>
-      </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>400</v>
-      </c>
-      <c r="K62" s="3">
-        <v>300</v>
       </c>
       <c r="L62" s="3">
         <v>300</v>
       </c>
       <c r="M62" s="3">
+        <v>300</v>
+      </c>
+      <c r="N62" s="3">
         <v>100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3600</v>
+        <v>4600</v>
       </c>
       <c r="E66" s="3">
-        <v>3400</v>
+        <v>4600</v>
       </c>
       <c r="F66" s="3">
-        <v>4700</v>
+        <v>4300</v>
       </c>
       <c r="G66" s="3">
+        <v>6000</v>
+      </c>
+      <c r="H66" s="3">
+        <v>6200</v>
+      </c>
+      <c r="I66" s="3">
+        <v>4300</v>
+      </c>
+      <c r="J66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="L66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="M66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="N66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O66" s="3">
+        <v>3800</v>
+      </c>
+      <c r="P66" s="3">
         <v>4900</v>
       </c>
-      <c r="H66" s="3">
-        <v>3400</v>
-      </c>
-      <c r="I66" s="3">
-        <v>2600</v>
-      </c>
-      <c r="J66" s="3">
-        <v>3200</v>
-      </c>
-      <c r="K66" s="3">
-        <v>2800</v>
-      </c>
-      <c r="L66" s="3">
-        <v>2600</v>
-      </c>
-      <c r="M66" s="3">
-        <v>1700</v>
-      </c>
-      <c r="N66" s="3">
-        <v>3800</v>
-      </c>
-      <c r="O66" s="3">
-        <v>4900</v>
-      </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>249400</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-411800</v>
+        <v>-519300</v>
       </c>
       <c r="E72" s="3">
-        <v>-416800</v>
+        <v>-524500</v>
       </c>
       <c r="F72" s="3">
-        <v>-429800</v>
+        <v>-530900</v>
       </c>
       <c r="G72" s="3">
-        <v>-447500</v>
+        <v>-547500</v>
       </c>
       <c r="H72" s="3">
-        <v>-450700</v>
+        <v>-570000</v>
       </c>
       <c r="I72" s="3">
-        <v>-465400</v>
+        <v>-574100</v>
       </c>
       <c r="J72" s="3">
+        <v>-592800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-487200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-466000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-318500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-275200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-270000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-269300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-269200</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>218200</v>
+        <v>283900</v>
       </c>
       <c r="E76" s="3">
-        <v>212400</v>
+        <v>278000</v>
       </c>
       <c r="F76" s="3">
-        <v>198900</v>
+        <v>270600</v>
       </c>
       <c r="G76" s="3">
-        <v>180800</v>
+        <v>253300</v>
       </c>
       <c r="H76" s="3">
-        <v>176100</v>
+        <v>230300</v>
       </c>
       <c r="I76" s="3">
-        <v>160900</v>
+        <v>224300</v>
       </c>
       <c r="J76" s="3">
+        <v>205000</v>
+      </c>
+      <c r="K76" s="3">
         <v>141300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>163100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>310000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>303700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>308800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>309500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>309700</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>5000</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E81" s="3">
-        <v>13000</v>
+        <v>6400</v>
       </c>
       <c r="F81" s="3">
-        <v>17700</v>
+        <v>16600</v>
       </c>
       <c r="G81" s="3">
-        <v>3200</v>
+        <v>22500</v>
       </c>
       <c r="H81" s="3">
-        <v>14700</v>
+        <v>4100</v>
       </c>
       <c r="I81" s="3">
-        <v>21800</v>
+        <v>18700</v>
       </c>
       <c r="J81" s="3">
+        <v>27800</v>
+      </c>
+      <c r="K81" s="3">
         <v>-21200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-147500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>6100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-142300</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3643,16 +3842,16 @@
         <v>0</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -3667,13 +3866,16 @@
         <v>0</v>
       </c>
       <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
         <v>11700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>16900</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-3100</v>
+        <v>-3600</v>
       </c>
       <c r="E89" s="3">
-        <v>-4700</v>
+        <v>-4000</v>
       </c>
       <c r="F89" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-1600</v>
       </c>
-      <c r="G89" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-800</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="M89" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="N89" s="3">
         <v>-1600</v>
       </c>
-      <c r="K89" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>13400</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4174,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3993,13 +4214,16 @@
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-4300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-22900</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E94" s="3">
-        <v>3500</v>
+        <v>400</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>200</v>
       </c>
-      <c r="H94" s="3">
-        <v>15200</v>
-      </c>
       <c r="I94" s="3">
-        <v>22500</v>
+        <v>19400</v>
       </c>
       <c r="J94" s="3">
+        <v>28700</v>
+      </c>
+      <c r="K94" s="3">
         <v>20100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>10000</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-26400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>158100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-22900</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4567,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4336,26 +4582,26 @@
         <v>200</v>
       </c>
       <c r="F100" s="3">
+        <v>300</v>
+      </c>
+      <c r="G100" s="3">
+        <v>200</v>
+      </c>
+      <c r="H100" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
-        <v>1300</v>
-      </c>
-      <c r="H100" s="3">
-        <v>100</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-2000</v>
-      </c>
       <c r="J100" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -4363,13 +4609,16 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-164900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4380,20 +4629,20 @@
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
@@ -4407,53 +4656,59 @@
         <v>0</v>
       </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2700</v>
+        <v>-3400</v>
       </c>
       <c r="E102" s="3">
-        <v>-900</v>
+        <v>-3400</v>
       </c>
       <c r="F102" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="G102" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="I102" s="3">
+        <v>18300</v>
+      </c>
+      <c r="J102" s="3">
+        <v>24800</v>
+      </c>
+      <c r="K102" s="3">
+        <v>17500</v>
+      </c>
+      <c r="L102" s="3">
+        <v>6800</v>
+      </c>
+      <c r="M102" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="N102" s="3">
         <v>-1500</v>
       </c>
-      <c r="H102" s="3">
-        <v>14400</v>
-      </c>
-      <c r="I102" s="3">
-        <v>19500</v>
-      </c>
-      <c r="J102" s="3">
-        <v>17500</v>
-      </c>
-      <c r="K102" s="3">
-        <v>6800</v>
-      </c>
-      <c r="L102" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="M102" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-28300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GAU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GAU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
   <si>
     <t>GAU</t>
   </si>
@@ -901,10 +901,10 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="E12" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>4</v>
@@ -1104,26 +1104,26 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
+      <c r="D17" s="3">
+        <v>-1900</v>
       </c>
       <c r="E17" s="3">
-        <v>-3600</v>
+        <v>-2800</v>
       </c>
       <c r="F17" s="3">
-        <v>-13600</v>
+        <v>-10700</v>
       </c>
       <c r="G17" s="3">
-        <v>-21100</v>
+        <v>-16600</v>
       </c>
       <c r="H17" s="3">
-        <v>-2100</v>
+        <v>-1600</v>
       </c>
       <c r="I17" s="3">
-        <v>-15300</v>
+        <v>-12000</v>
       </c>
       <c r="J17" s="3">
-        <v>-24300</v>
+        <v>-19100</v>
       </c>
       <c r="K17" s="3">
         <v>1100</v>
@@ -1358,26 +1358,26 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>4100</v>
       </c>
       <c r="E23" s="3">
-        <v>6400</v>
+        <v>5000</v>
       </c>
       <c r="F23" s="3">
-        <v>16600</v>
+        <v>13000</v>
       </c>
       <c r="G23" s="3">
-        <v>22500</v>
+        <v>17700</v>
       </c>
       <c r="H23" s="3">
-        <v>4100</v>
+        <v>3200</v>
       </c>
       <c r="I23" s="3">
-        <v>18700</v>
+        <v>14700</v>
       </c>
       <c r="J23" s="3">
-        <v>27800</v>
+        <v>21800</v>
       </c>
       <c r="K23" s="3">
         <v>-21200</v>
@@ -1499,26 +1499,26 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>4100</v>
       </c>
       <c r="E26" s="3">
-        <v>6400</v>
+        <v>5000</v>
       </c>
       <c r="F26" s="3">
-        <v>16600</v>
+        <v>13000</v>
       </c>
       <c r="G26" s="3">
-        <v>22500</v>
+        <v>17700</v>
       </c>
       <c r="H26" s="3">
-        <v>4100</v>
+        <v>3200</v>
       </c>
       <c r="I26" s="3">
-        <v>18700</v>
+        <v>14700</v>
       </c>
       <c r="J26" s="3">
-        <v>27800</v>
+        <v>21800</v>
       </c>
       <c r="K26" s="3">
         <v>-21200</v>
@@ -1546,26 +1546,26 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>4100</v>
       </c>
       <c r="E27" s="3">
-        <v>6400</v>
+        <v>5000</v>
       </c>
       <c r="F27" s="3">
-        <v>16600</v>
+        <v>13000</v>
       </c>
       <c r="G27" s="3">
-        <v>22500</v>
+        <v>17700</v>
       </c>
       <c r="H27" s="3">
-        <v>4100</v>
+        <v>3200</v>
       </c>
       <c r="I27" s="3">
-        <v>18700</v>
+        <v>14700</v>
       </c>
       <c r="J27" s="3">
-        <v>27800</v>
+        <v>21800</v>
       </c>
       <c r="K27" s="3">
         <v>-21200</v>
@@ -1828,26 +1828,26 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>4100</v>
       </c>
       <c r="E33" s="3">
-        <v>6400</v>
+        <v>5000</v>
       </c>
       <c r="F33" s="3">
-        <v>16600</v>
+        <v>13000</v>
       </c>
       <c r="G33" s="3">
-        <v>22500</v>
+        <v>17700</v>
       </c>
       <c r="H33" s="3">
-        <v>4100</v>
+        <v>3200</v>
       </c>
       <c r="I33" s="3">
-        <v>18700</v>
+        <v>14700</v>
       </c>
       <c r="J33" s="3">
-        <v>27800</v>
+        <v>21800</v>
       </c>
       <c r="K33" s="3">
         <v>-21200</v>
@@ -1922,26 +1922,26 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>4100</v>
       </c>
       <c r="E35" s="3">
-        <v>6400</v>
+        <v>5000</v>
       </c>
       <c r="F35" s="3">
-        <v>16600</v>
+        <v>13000</v>
       </c>
       <c r="G35" s="3">
-        <v>22500</v>
+        <v>17700</v>
       </c>
       <c r="H35" s="3">
-        <v>4100</v>
+        <v>3200</v>
       </c>
       <c r="I35" s="3">
-        <v>18700</v>
+        <v>14700</v>
       </c>
       <c r="J35" s="3">
-        <v>27800</v>
+        <v>21800</v>
       </c>
       <c r="K35" s="3">
         <v>-21200</v>
@@ -2060,25 +2060,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>71100</v>
+        <v>55800</v>
       </c>
       <c r="E41" s="3">
-        <v>74600</v>
+        <v>58500</v>
       </c>
       <c r="F41" s="3">
-        <v>78000</v>
+        <v>61200</v>
       </c>
       <c r="G41" s="3">
-        <v>79200</v>
+        <v>62200</v>
       </c>
       <c r="H41" s="3">
-        <v>80900</v>
+        <v>63500</v>
       </c>
       <c r="I41" s="3">
-        <v>82700</v>
+        <v>64900</v>
       </c>
       <c r="J41" s="3">
-        <v>64500</v>
+        <v>50600</v>
       </c>
       <c r="K41" s="3">
         <v>31100</v>
@@ -2154,25 +2154,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7700</v>
+        <v>6100</v>
       </c>
       <c r="E43" s="3">
-        <v>6200</v>
+        <v>4900</v>
       </c>
       <c r="F43" s="3">
-        <v>4800</v>
+        <v>3800</v>
       </c>
       <c r="G43" s="3">
-        <v>3600</v>
+        <v>2900</v>
       </c>
       <c r="H43" s="3">
-        <v>3700</v>
+        <v>2900</v>
       </c>
       <c r="I43" s="3">
-        <v>3900</v>
+        <v>3000</v>
       </c>
       <c r="J43" s="3">
-        <v>3900</v>
+        <v>3100</v>
       </c>
       <c r="K43" s="3">
         <v>4300</v>
@@ -2248,25 +2248,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>200</v>
+      </c>
+      <c r="F45" s="3">
+        <v>500</v>
+      </c>
+      <c r="G45" s="3">
+        <v>500</v>
+      </c>
+      <c r="H45" s="3">
         <v>1100</v>
-      </c>
-      <c r="E45" s="3">
-        <v>300</v>
-      </c>
-      <c r="F45" s="3">
-        <v>600</v>
-      </c>
-      <c r="G45" s="3">
-        <v>700</v>
-      </c>
-      <c r="H45" s="3">
-        <v>1400</v>
       </c>
       <c r="I45" s="3">
         <v>300</v>
       </c>
       <c r="J45" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K45" s="3">
         <v>300</v>
@@ -2295,25 +2295,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>79900</v>
+        <v>62800</v>
       </c>
       <c r="E46" s="3">
-        <v>81100</v>
+        <v>63700</v>
       </c>
       <c r="F46" s="3">
-        <v>83400</v>
+        <v>65500</v>
       </c>
       <c r="G46" s="3">
-        <v>83500</v>
+        <v>65500</v>
       </c>
       <c r="H46" s="3">
-        <v>85900</v>
+        <v>67400</v>
       </c>
       <c r="I46" s="3">
-        <v>86900</v>
+        <v>68200</v>
       </c>
       <c r="J46" s="3">
-        <v>69000</v>
+        <v>54100</v>
       </c>
       <c r="K46" s="3">
         <v>35800</v>
@@ -2342,25 +2342,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>205800</v>
+        <v>161600</v>
       </c>
       <c r="E47" s="3">
-        <v>198700</v>
+        <v>156000</v>
       </c>
       <c r="F47" s="3">
-        <v>188700</v>
+        <v>148200</v>
       </c>
       <c r="G47" s="3">
-        <v>175100</v>
+        <v>137500</v>
       </c>
       <c r="H47" s="3">
-        <v>149800</v>
+        <v>117600</v>
       </c>
       <c r="I47" s="3">
-        <v>140800</v>
+        <v>110600</v>
       </c>
       <c r="J47" s="3">
-        <v>138500</v>
+        <v>108700</v>
       </c>
       <c r="K47" s="3">
         <v>108000</v>
@@ -2389,25 +2389,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2700</v>
+        <v>2100</v>
       </c>
       <c r="E48" s="3">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="F48" s="3">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="G48" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="H48" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="I48" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="J48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K48" s="3">
         <v>700</v>
@@ -2671,25 +2671,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>288500</v>
+        <v>226500</v>
       </c>
       <c r="E54" s="3">
-        <v>282600</v>
+        <v>221800</v>
       </c>
       <c r="F54" s="3">
-        <v>274900</v>
+        <v>215800</v>
       </c>
       <c r="G54" s="3">
-        <v>259300</v>
+        <v>203600</v>
       </c>
       <c r="H54" s="3">
-        <v>236500</v>
+        <v>185600</v>
       </c>
       <c r="I54" s="3">
-        <v>228600</v>
+        <v>179400</v>
       </c>
       <c r="J54" s="3">
-        <v>208300</v>
+        <v>163500</v>
       </c>
       <c r="K54" s="3">
         <v>144500</v>
@@ -2756,25 +2756,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G57" s="3">
         <v>3500</v>
       </c>
-      <c r="E57" s="3">
-        <v>3400</v>
-      </c>
-      <c r="F57" s="3">
-        <v>3100</v>
-      </c>
-      <c r="G57" s="3">
-        <v>4500</v>
-      </c>
       <c r="H57" s="3">
-        <v>4900</v>
+        <v>3900</v>
       </c>
       <c r="I57" s="3">
-        <v>3200</v>
+        <v>2500</v>
       </c>
       <c r="J57" s="3">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="K57" s="3">
         <v>2200</v>
@@ -2897,25 +2897,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3700</v>
+        <v>2900</v>
       </c>
       <c r="E60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G60" s="3">
         <v>3600</v>
       </c>
-      <c r="F60" s="3">
-        <v>3300</v>
-      </c>
-      <c r="G60" s="3">
-        <v>4600</v>
-      </c>
       <c r="H60" s="3">
-        <v>5000</v>
+        <v>3900</v>
       </c>
       <c r="I60" s="3">
-        <v>3300</v>
+        <v>2600</v>
       </c>
       <c r="J60" s="3">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="K60" s="3">
         <v>2300</v>
@@ -2944,25 +2944,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>300</v>
+      </c>
+      <c r="E61" s="3">
         <v>400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
+        <v>400</v>
+      </c>
+      <c r="G61" s="3">
+        <v>400</v>
+      </c>
+      <c r="H61" s="3">
         <v>500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="I61" s="3">
         <v>500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="J61" s="3">
         <v>500</v>
-      </c>
-      <c r="H61" s="3">
-        <v>600</v>
-      </c>
-      <c r="I61" s="3">
-        <v>600</v>
-      </c>
-      <c r="J61" s="3">
-        <v>600</v>
       </c>
       <c r="K61" s="3">
         <v>500</v>
@@ -2991,25 +2991,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>400</v>
+      </c>
+      <c r="E62" s="3">
         <v>500</v>
       </c>
-      <c r="E62" s="3">
-        <v>600</v>
-      </c>
       <c r="F62" s="3">
+        <v>400</v>
+      </c>
+      <c r="G62" s="3">
+        <v>700</v>
+      </c>
+      <c r="H62" s="3">
         <v>500</v>
       </c>
-      <c r="G62" s="3">
-        <v>900</v>
-      </c>
-      <c r="H62" s="3">
-        <v>600</v>
-      </c>
       <c r="I62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J62" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K62" s="3">
         <v>400</v>
@@ -3179,25 +3179,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4600</v>
+        <v>3600</v>
       </c>
       <c r="E66" s="3">
-        <v>4600</v>
+        <v>3600</v>
       </c>
       <c r="F66" s="3">
-        <v>4300</v>
+        <v>3400</v>
       </c>
       <c r="G66" s="3">
-        <v>6000</v>
+        <v>4700</v>
       </c>
       <c r="H66" s="3">
-        <v>6200</v>
+        <v>4900</v>
       </c>
       <c r="I66" s="3">
-        <v>4300</v>
+        <v>3400</v>
       </c>
       <c r="J66" s="3">
-        <v>3300</v>
+        <v>2600</v>
       </c>
       <c r="K66" s="3">
         <v>3200</v>
@@ -3433,25 +3433,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-519300</v>
+        <v>-407700</v>
       </c>
       <c r="E72" s="3">
-        <v>-524500</v>
+        <v>-411800</v>
       </c>
       <c r="F72" s="3">
-        <v>-530900</v>
+        <v>-416800</v>
       </c>
       <c r="G72" s="3">
-        <v>-547500</v>
+        <v>-429800</v>
       </c>
       <c r="H72" s="3">
-        <v>-570000</v>
+        <v>-447500</v>
       </c>
       <c r="I72" s="3">
-        <v>-574100</v>
+        <v>-450700</v>
       </c>
       <c r="J72" s="3">
-        <v>-592800</v>
+        <v>-465400</v>
       </c>
       <c r="K72" s="3">
         <v>-487200</v>
@@ -3621,25 +3621,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>283900</v>
+        <v>222900</v>
       </c>
       <c r="E76" s="3">
-        <v>278000</v>
+        <v>218200</v>
       </c>
       <c r="F76" s="3">
-        <v>270600</v>
+        <v>212400</v>
       </c>
       <c r="G76" s="3">
-        <v>253300</v>
+        <v>198900</v>
       </c>
       <c r="H76" s="3">
-        <v>230300</v>
+        <v>180800</v>
       </c>
       <c r="I76" s="3">
-        <v>224300</v>
+        <v>176100</v>
       </c>
       <c r="J76" s="3">
-        <v>205000</v>
+        <v>160900</v>
       </c>
       <c r="K76" s="3">
         <v>141300</v>
@@ -3766,26 +3766,26 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>4100</v>
       </c>
       <c r="E81" s="3">
-        <v>6400</v>
+        <v>5000</v>
       </c>
       <c r="F81" s="3">
-        <v>16600</v>
+        <v>13000</v>
       </c>
       <c r="G81" s="3">
-        <v>22500</v>
+        <v>17700</v>
       </c>
       <c r="H81" s="3">
-        <v>4100</v>
+        <v>3200</v>
       </c>
       <c r="I81" s="3">
-        <v>18700</v>
+        <v>14700</v>
       </c>
       <c r="J81" s="3">
-        <v>27800</v>
+        <v>21800</v>
       </c>
       <c r="K81" s="3">
         <v>-21200</v>
@@ -3842,16 +3842,16 @@
         <v>0</v>
       </c>
       <c r="G83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -4115,25 +4115,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-3600</v>
+        <v>-2800</v>
       </c>
       <c r="E89" s="3">
-        <v>-4000</v>
+        <v>-3100</v>
       </c>
       <c r="F89" s="3">
-        <v>-6000</v>
+        <v>-4700</v>
       </c>
       <c r="G89" s="3">
-        <v>-2000</v>
+        <v>-1600</v>
       </c>
       <c r="H89" s="3">
-        <v>-3800</v>
+        <v>-3000</v>
       </c>
       <c r="I89" s="3">
-        <v>-1300</v>
+        <v>-1000</v>
       </c>
       <c r="J89" s="3">
-        <v>-1100</v>
+        <v>-800</v>
       </c>
       <c r="K89" s="3">
         <v>-1600</v>
@@ -4322,13 +4322,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F94" s="3">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -4337,10 +4337,10 @@
         <v>200</v>
       </c>
       <c r="I94" s="3">
-        <v>19400</v>
+        <v>15200</v>
       </c>
       <c r="J94" s="3">
-        <v>28700</v>
+        <v>22500</v>
       </c>
       <c r="K94" s="3">
         <v>20100</v>
@@ -4579,22 +4579,22 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
-        <v>300</v>
-      </c>
       <c r="G100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H100" s="3">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="I100" s="3">
         <v>100</v>
       </c>
       <c r="J100" s="3">
-        <v>-2600</v>
+        <v>-2000</v>
       </c>
       <c r="K100" s="3">
         <v>-1000</v>
@@ -4670,25 +4670,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-3400</v>
+        <v>-2700</v>
       </c>
       <c r="E102" s="3">
-        <v>-3400</v>
+        <v>-2700</v>
       </c>
       <c r="F102" s="3">
-        <v>-1200</v>
+        <v>-900</v>
       </c>
       <c r="G102" s="3">
-        <v>-1700</v>
+        <v>-1300</v>
       </c>
       <c r="H102" s="3">
-        <v>-1900</v>
+        <v>-1500</v>
       </c>
       <c r="I102" s="3">
-        <v>18300</v>
+        <v>14400</v>
       </c>
       <c r="J102" s="3">
-        <v>24800</v>
+        <v>19500</v>
       </c>
       <c r="K102" s="3">
         <v>17500</v>

--- a/AAII_Financials/Quarterly/GAU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GAU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
   <si>
     <t>GAU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,107 +665,114 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -777,13 +784,19 @@
         <v>0</v>
       </c>
       <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
         <v>30700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>66800</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -823,14 +836,20 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3">
         <v>33400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>50700</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -870,14 +889,20 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,55 +920,63 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E12" s="3">
+        <v>200</v>
+      </c>
+      <c r="F12" s="3">
+        <v>200</v>
+      </c>
+      <c r="G12" s="3">
+        <v>500</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3">
         <v>400</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P12" s="3">
-        <v>400</v>
-      </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,16 +1022,22 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
+      <c r="E14" s="3">
+        <v>10000</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
@@ -1015,29 +1054,35 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>144600</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1068,11 +1113,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>4</v>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>4</v>
@@ -1083,8 +1128,14 @@
       <c r="Q15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1150,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>-1900</v>
+        <v>2100</v>
       </c>
       <c r="E17" s="3">
-        <v>-2800</v>
+        <v>109100</v>
       </c>
       <c r="F17" s="3">
-        <v>-10700</v>
+        <v>-2500</v>
       </c>
       <c r="G17" s="3">
-        <v>-16600</v>
+        <v>-3700</v>
       </c>
       <c r="H17" s="3">
-        <v>-1600</v>
+        <v>-13900</v>
       </c>
       <c r="I17" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="J17" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="K17" s="3">
         <v>-12000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>-19100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>127800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>-3800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>8000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>3400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>34400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>200300</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="E18" s="3">
+        <v>-109100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G18" s="3">
+        <v>3700</v>
+      </c>
+      <c r="H18" s="3">
+        <v>13900</v>
+      </c>
+      <c r="I18" s="3">
+        <v>21600</v>
+      </c>
+      <c r="J18" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3">
         <v>-1100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-127800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>3800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-8000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-3400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-133500</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,102 +1277,116 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="E20" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G20" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H20" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="3">
         <v>-20100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-19800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>2300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>2700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>2500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>2600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="E21" s="3">
+        <v>-118700</v>
+      </c>
+      <c r="F21" s="3">
+        <v>5400</v>
+      </c>
+      <c r="G21" s="3">
+        <v>6600</v>
+      </c>
+      <c r="H21" s="3">
+        <v>17000</v>
+      </c>
+      <c r="I21" s="3">
+        <v>23100</v>
+      </c>
+      <c r="J21" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3">
         <v>-21200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-147500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>6100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-5300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>10600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-116500</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1320,11 +1399,11 @@
       <c r="F22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1347,90 +1426,102 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S22" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4100</v>
+        <v>-2000</v>
       </c>
       <c r="E23" s="3">
-        <v>5000</v>
+        <v>-118700</v>
       </c>
       <c r="F23" s="3">
-        <v>13000</v>
+        <v>5400</v>
       </c>
       <c r="G23" s="3">
-        <v>17700</v>
+        <v>6500</v>
       </c>
       <c r="H23" s="3">
-        <v>3200</v>
+        <v>17000</v>
       </c>
       <c r="I23" s="3">
+        <v>23100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K23" s="3">
         <v>14700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>21800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-21200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-147500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>6100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-5300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-138600</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1442,13 +1533,19 @@
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4100</v>
+        <v>-2000</v>
       </c>
       <c r="E26" s="3">
-        <v>5000</v>
+        <v>-118700</v>
       </c>
       <c r="F26" s="3">
-        <v>13000</v>
+        <v>5400</v>
       </c>
       <c r="G26" s="3">
-        <v>17700</v>
+        <v>6500</v>
       </c>
       <c r="H26" s="3">
-        <v>3200</v>
+        <v>17000</v>
       </c>
       <c r="I26" s="3">
+        <v>23100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K26" s="3">
         <v>14700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>21800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-21200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-147500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>6100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-5300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-141900</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4100</v>
+        <v>-2000</v>
       </c>
       <c r="E27" s="3">
-        <v>5000</v>
+        <v>-118700</v>
       </c>
       <c r="F27" s="3">
-        <v>13000</v>
+        <v>5400</v>
       </c>
       <c r="G27" s="3">
-        <v>17700</v>
+        <v>6500</v>
       </c>
       <c r="H27" s="3">
-        <v>3200</v>
+        <v>17000</v>
       </c>
       <c r="I27" s="3">
+        <v>23100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K27" s="3">
         <v>14700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>21800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-21200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-147500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>6100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-5300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-142300</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1909,120 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="E32" s="3">
+        <v>9700</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" s="3">
         <v>20100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>19800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-2300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-2700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-2500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4100</v>
+        <v>-2000</v>
       </c>
       <c r="E33" s="3">
-        <v>5000</v>
+        <v>-118700</v>
       </c>
       <c r="F33" s="3">
-        <v>13000</v>
+        <v>5400</v>
       </c>
       <c r="G33" s="3">
-        <v>17700</v>
+        <v>6500</v>
       </c>
       <c r="H33" s="3">
-        <v>3200</v>
+        <v>17000</v>
       </c>
       <c r="I33" s="3">
+        <v>23100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K33" s="3">
         <v>14700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>21800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-21200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-147500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>6100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-5300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-142300</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4100</v>
+        <v>-2000</v>
       </c>
       <c r="E35" s="3">
-        <v>5000</v>
+        <v>-118700</v>
       </c>
       <c r="F35" s="3">
-        <v>13000</v>
+        <v>5400</v>
       </c>
       <c r="G35" s="3">
-        <v>17700</v>
+        <v>6500</v>
       </c>
       <c r="H35" s="3">
-        <v>3200</v>
+        <v>17000</v>
       </c>
       <c r="I35" s="3">
+        <v>23100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K35" s="3">
         <v>14700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>21800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-21200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-147500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>6100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-5300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-142300</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2225,63 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>55800</v>
+        <v>65700</v>
       </c>
       <c r="E41" s="3">
-        <v>58500</v>
+        <v>69800</v>
       </c>
       <c r="F41" s="3">
-        <v>61200</v>
+        <v>72800</v>
       </c>
       <c r="G41" s="3">
-        <v>62200</v>
+        <v>76400</v>
       </c>
       <c r="H41" s="3">
-        <v>63500</v>
+        <v>79900</v>
       </c>
       <c r="I41" s="3">
+        <v>81100</v>
+      </c>
+      <c r="J41" s="3">
+        <v>82800</v>
+      </c>
+      <c r="K41" s="3">
         <v>64900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>50600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>31100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>13600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>6800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>8800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>10400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>14300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>18800</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,55 +2327,67 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6100</v>
+        <v>11400</v>
       </c>
       <c r="E43" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F43" s="3">
+        <v>7900</v>
+      </c>
+      <c r="G43" s="3">
+        <v>6400</v>
+      </c>
+      <c r="H43" s="3">
         <v>4900</v>
       </c>
-      <c r="F43" s="3">
-        <v>3800</v>
-      </c>
-      <c r="G43" s="3">
-        <v>2900</v>
-      </c>
-      <c r="H43" s="3">
-        <v>2900</v>
-      </c>
       <c r="I43" s="3">
+        <v>3700</v>
+      </c>
+      <c r="J43" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K43" s="3">
         <v>3000</v>
-      </c>
-      <c r="J43" s="3">
-        <v>3100</v>
-      </c>
-      <c r="K43" s="3">
-        <v>4300</v>
       </c>
       <c r="L43" s="3">
         <v>3100</v>
       </c>
       <c r="M43" s="3">
+        <v>4300</v>
+      </c>
+      <c r="N43" s="3">
+        <v>3100</v>
+      </c>
+      <c r="O43" s="3">
         <v>1600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>2600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,43 +2433,49 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="E45" s="3">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="F45" s="3">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="G45" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="H45" s="3">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="I45" s="3">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="J45" s="3">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="K45" s="3">
         <v>300</v>
       </c>
       <c r="L45" s="3">
+        <v>500</v>
+      </c>
+      <c r="M45" s="3">
+        <v>300</v>
+      </c>
+      <c r="N45" s="3">
         <v>400</v>
-      </c>
-      <c r="M45" s="3">
-        <v>200</v>
-      </c>
-      <c r="N45" s="3">
-        <v>300</v>
       </c>
       <c r="O45" s="3">
         <v>200</v>
@@ -2287,139 +2484,157 @@
         <v>300</v>
       </c>
       <c r="Q45" s="3">
+        <v>200</v>
+      </c>
+      <c r="R45" s="3">
+        <v>300</v>
+      </c>
+      <c r="S45" s="3">
         <v>539300</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>62800</v>
+        <v>77800</v>
       </c>
       <c r="E46" s="3">
-        <v>63700</v>
+        <v>80400</v>
       </c>
       <c r="F46" s="3">
-        <v>65500</v>
+        <v>81900</v>
       </c>
       <c r="G46" s="3">
-        <v>65500</v>
+        <v>83100</v>
       </c>
       <c r="H46" s="3">
-        <v>67400</v>
+        <v>85400</v>
       </c>
       <c r="I46" s="3">
+        <v>85500</v>
+      </c>
+      <c r="J46" s="3">
+        <v>87900</v>
+      </c>
+      <c r="K46" s="3">
         <v>68200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>54100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>35800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>17100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>8600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>9600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>13100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>15900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>559000</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>161600</v>
+        <v>94500</v>
       </c>
       <c r="E47" s="3">
-        <v>156000</v>
+        <v>94500</v>
       </c>
       <c r="F47" s="3">
-        <v>148200</v>
+        <v>210800</v>
       </c>
       <c r="G47" s="3">
-        <v>137500</v>
+        <v>203500</v>
       </c>
       <c r="H47" s="3">
-        <v>117600</v>
+        <v>193300</v>
       </c>
       <c r="I47" s="3">
+        <v>179300</v>
+      </c>
+      <c r="J47" s="3">
+        <v>153400</v>
+      </c>
+      <c r="K47" s="3">
         <v>110600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>108700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>108000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>148100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>304000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>295600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>299400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>298400</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2100</v>
+        <v>2700</v>
       </c>
       <c r="E48" s="3">
-        <v>2200</v>
+        <v>2700</v>
       </c>
       <c r="F48" s="3">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="G48" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H48" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I48" s="3">
+        <v>800</v>
+      </c>
+      <c r="J48" s="3">
+        <v>800</v>
+      </c>
+      <c r="K48" s="3">
         <v>600</v>
-      </c>
-      <c r="H48" s="3">
-        <v>600</v>
-      </c>
-      <c r="I48" s="3">
-        <v>600</v>
-      </c>
-      <c r="J48" s="3">
-        <v>700</v>
-      </c>
-      <c r="K48" s="3">
-        <v>700</v>
       </c>
       <c r="L48" s="3">
         <v>700</v>
       </c>
       <c r="M48" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="N48" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="O48" s="3">
         <v>100</v>
@@ -2430,8 +2645,14 @@
       <c r="Q48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>100</v>
+      </c>
+      <c r="S48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2698,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2804,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2618,8 +2857,14 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2910,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>226500</v>
+        <v>174900</v>
       </c>
       <c r="E54" s="3">
-        <v>221800</v>
+        <v>177700</v>
       </c>
       <c r="F54" s="3">
-        <v>215800</v>
+        <v>295400</v>
       </c>
       <c r="G54" s="3">
-        <v>203600</v>
+        <v>289400</v>
       </c>
       <c r="H54" s="3">
-        <v>185600</v>
+        <v>281500</v>
       </c>
       <c r="I54" s="3">
+        <v>265600</v>
+      </c>
+      <c r="J54" s="3">
+        <v>242100</v>
+      </c>
+      <c r="K54" s="3">
         <v>179400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>163500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>144500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>166000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>312700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>305300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>312600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>314400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>559100</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,55 +3009,63 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="E57" s="3">
-        <v>2700</v>
+        <v>3300</v>
       </c>
       <c r="F57" s="3">
-        <v>2500</v>
+        <v>3600</v>
       </c>
       <c r="G57" s="3">
         <v>3500</v>
       </c>
       <c r="H57" s="3">
-        <v>3900</v>
+        <v>3200</v>
       </c>
       <c r="I57" s="3">
+        <v>4600</v>
+      </c>
+      <c r="J57" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K57" s="3">
         <v>2500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>3500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>4700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2829,23 +3096,29 @@
       <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="M58" s="3">
+        <v>100</v>
+      </c>
+      <c r="N58" s="3">
+        <v>100</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2885,14 +3158,20 @@
       <c r="O59" s="3">
         <v>0</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
+      <c r="P59" s="3">
+        <v>0</v>
       </c>
       <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S59" s="3">
         <v>241800</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2900,51 +3179,57 @@
         <v>2900</v>
       </c>
       <c r="E60" s="3">
-        <v>2800</v>
+        <v>3400</v>
       </c>
       <c r="F60" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G60" s="3">
+        <v>3700</v>
+      </c>
+      <c r="H60" s="3">
+        <v>3300</v>
+      </c>
+      <c r="I60" s="3">
+        <v>4700</v>
+      </c>
+      <c r="J60" s="3">
+        <v>5100</v>
+      </c>
+      <c r="K60" s="3">
         <v>2600</v>
       </c>
-      <c r="G60" s="3">
-        <v>3600</v>
-      </c>
-      <c r="H60" s="3">
-        <v>3900</v>
-      </c>
-      <c r="I60" s="3">
-        <v>2600</v>
-      </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>3500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>4700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>247600</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E61" s="3">
         <v>400</v>
@@ -2953,7 +3238,7 @@
         <v>400</v>
       </c>
       <c r="G61" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H61" s="3">
         <v>500</v>
@@ -2962,7 +3247,7 @@
         <v>500</v>
       </c>
       <c r="J61" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K61" s="3">
         <v>500</v>
@@ -2971,10 +3256,10 @@
         <v>500</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
@@ -2985,8 +3270,14 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2994,46 +3285,52 @@
         <v>400</v>
       </c>
       <c r="E62" s="3">
+        <v>600</v>
+      </c>
+      <c r="F62" s="3">
         <v>500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
+        <v>600</v>
+      </c>
+      <c r="H62" s="3">
+        <v>600</v>
+      </c>
+      <c r="I62" s="3">
+        <v>900</v>
+      </c>
+      <c r="J62" s="3">
+        <v>600</v>
+      </c>
+      <c r="K62" s="3">
+        <v>300</v>
+      </c>
+      <c r="L62" s="3">
+        <v>500</v>
+      </c>
+      <c r="M62" s="3">
         <v>400</v>
       </c>
-      <c r="G62" s="3">
-        <v>700</v>
-      </c>
-      <c r="H62" s="3">
-        <v>500</v>
-      </c>
-      <c r="I62" s="3">
+      <c r="N62" s="3">
         <v>300</v>
-      </c>
-      <c r="J62" s="3">
-        <v>500</v>
-      </c>
-      <c r="K62" s="3">
-        <v>400</v>
-      </c>
-      <c r="L62" s="3">
-        <v>300</v>
-      </c>
-      <c r="M62" s="3">
-        <v>300</v>
-      </c>
-      <c r="N62" s="3">
-        <v>100</v>
       </c>
       <c r="O62" s="3">
         <v>300</v>
       </c>
       <c r="P62" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>300</v>
+      </c>
+      <c r="R62" s="3">
         <v>200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,8 +3482,14 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3182,46 +3497,52 @@
         <v>3600</v>
       </c>
       <c r="E66" s="3">
-        <v>3600</v>
+        <v>4500</v>
       </c>
       <c r="F66" s="3">
-        <v>3400</v>
+        <v>4700</v>
       </c>
       <c r="G66" s="3">
         <v>4700</v>
       </c>
       <c r="H66" s="3">
+        <v>4400</v>
+      </c>
+      <c r="I66" s="3">
+        <v>6100</v>
+      </c>
+      <c r="J66" s="3">
+        <v>6400</v>
+      </c>
+      <c r="K66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="L66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="M66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="N66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="O66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="P66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>3800</v>
+      </c>
+      <c r="R66" s="3">
         <v>4900</v>
       </c>
-      <c r="I66" s="3">
-        <v>3400</v>
-      </c>
-      <c r="J66" s="3">
-        <v>2600</v>
-      </c>
-      <c r="K66" s="3">
-        <v>3200</v>
-      </c>
-      <c r="L66" s="3">
-        <v>2800</v>
-      </c>
-      <c r="M66" s="3">
-        <v>2600</v>
-      </c>
-      <c r="N66" s="3">
-        <v>1700</v>
-      </c>
-      <c r="O66" s="3">
-        <v>3800</v>
-      </c>
-      <c r="P66" s="3">
-        <v>4900</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>249400</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-407700</v>
+        <v>-652500</v>
       </c>
       <c r="E72" s="3">
-        <v>-411800</v>
+        <v>-650500</v>
       </c>
       <c r="F72" s="3">
-        <v>-416800</v>
+        <v>-531800</v>
       </c>
       <c r="G72" s="3">
-        <v>-429800</v>
+        <v>-537100</v>
       </c>
       <c r="H72" s="3">
-        <v>-447500</v>
+        <v>-543700</v>
       </c>
       <c r="I72" s="3">
+        <v>-560700</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-583700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-450700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-465400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-487200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-466000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-318500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-275200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-270000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-269300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-269200</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>222900</v>
+        <v>171300</v>
       </c>
       <c r="E76" s="3">
-        <v>218200</v>
+        <v>173200</v>
       </c>
       <c r="F76" s="3">
-        <v>212400</v>
+        <v>290700</v>
       </c>
       <c r="G76" s="3">
-        <v>198900</v>
+        <v>284600</v>
       </c>
       <c r="H76" s="3">
-        <v>180800</v>
+        <v>277100</v>
       </c>
       <c r="I76" s="3">
+        <v>259400</v>
+      </c>
+      <c r="J76" s="3">
+        <v>235800</v>
+      </c>
+      <c r="K76" s="3">
         <v>176100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>160900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>141300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>163100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>310000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>303700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>308800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>309500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>309700</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4100</v>
+        <v>-2000</v>
       </c>
       <c r="E81" s="3">
-        <v>5000</v>
+        <v>-118700</v>
       </c>
       <c r="F81" s="3">
-        <v>13000</v>
+        <v>5400</v>
       </c>
       <c r="G81" s="3">
-        <v>17700</v>
+        <v>6500</v>
       </c>
       <c r="H81" s="3">
-        <v>3200</v>
+        <v>17000</v>
       </c>
       <c r="I81" s="3">
+        <v>23100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K81" s="3">
         <v>14700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>21800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-21200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-147500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>6100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-5300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-142300</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3848,10 +4245,10 @@
         <v>0</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -3869,13 +4266,19 @@
         <v>0</v>
       </c>
       <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
         <v>11700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>16900</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4536,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-2800</v>
+        <v>-4100</v>
       </c>
       <c r="E89" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="F89" s="3">
-        <v>-4700</v>
+        <v>-3700</v>
       </c>
       <c r="G89" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="K89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="L89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M89" s="3">
         <v>-1600</v>
       </c>
-      <c r="H89" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-800</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="N89" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="O89" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="P89" s="3">
         <v>-1600</v>
       </c>
-      <c r="L89" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-1900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>2900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>13400</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4614,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4217,13 +4658,19 @@
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-22900</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4769,67 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E94" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F94" s="3">
-        <v>3500</v>
+        <v>100</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H94" s="3">
+        <v>4600</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>15200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>22500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>20100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>10000</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-26400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>158100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-22900</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +5055,67 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
+        <v>200</v>
+      </c>
+      <c r="H100" s="3">
+        <v>300</v>
+      </c>
+      <c r="I100" s="3">
+        <v>200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
-        <v>200</v>
-      </c>
-      <c r="G100" s="3">
-        <v>100</v>
-      </c>
-      <c r="H100" s="3">
-        <v>1300</v>
-      </c>
-      <c r="I100" s="3">
-        <v>100</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-2000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-1000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-164900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4632,7 +5129,7 @@
         <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -4641,14 +5138,14 @@
         <v>100</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
+        <v>100</v>
+      </c>
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
@@ -4659,56 +5156,68 @@
         <v>0</v>
       </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2700</v>
+        <v>-4100</v>
       </c>
       <c r="E102" s="3">
-        <v>-2700</v>
+        <v>-3000</v>
       </c>
       <c r="F102" s="3">
-        <v>-900</v>
+        <v>-3500</v>
       </c>
       <c r="G102" s="3">
-        <v>-1300</v>
+        <v>-3500</v>
       </c>
       <c r="H102" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K102" s="3">
+        <v>14400</v>
+      </c>
+      <c r="L102" s="3">
+        <v>19500</v>
+      </c>
+      <c r="M102" s="3">
+        <v>17500</v>
+      </c>
+      <c r="N102" s="3">
+        <v>6800</v>
+      </c>
+      <c r="O102" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="P102" s="3">
         <v>-1500</v>
       </c>
-      <c r="I102" s="3">
-        <v>14400</v>
-      </c>
-      <c r="J102" s="3">
-        <v>19500</v>
-      </c>
-      <c r="K102" s="3">
-        <v>17500</v>
-      </c>
-      <c r="L102" s="3">
-        <v>6800</v>
-      </c>
-      <c r="M102" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="N102" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-28300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>3900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GAU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GAU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
   <si>
     <t>GAU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -768,14 +772,14 @@
       <c r="J8" s="3">
         <v>0</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
+      <c r="K8" s="3">
+        <v>0</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
+      <c r="M8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -790,13 +794,16 @@
         <v>0</v>
       </c>
       <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
         <v>30700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>66800</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -842,14 +849,17 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R9" s="3">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3">
         <v>33400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>50700</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,14 +905,17 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R10" s="3">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3">
         <v>-2700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,25 +935,26 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G12" s="3">
-        <v>500</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="H12" s="3">
+        <v>400</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>4</v>
@@ -969,14 +983,17 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R12" s="3">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="3">
         <v>400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,19 +1045,22 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>10000</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>7600</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
@@ -1060,8 +1080,8 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1069,20 +1089,23 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>-1300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>144600</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1119,8 +1142,8 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>4</v>
+      <c r="O15" s="3">
+        <v>0</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>4</v>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,61 +1178,65 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2100</v>
+        <v>800</v>
       </c>
       <c r="E17" s="3">
-        <v>109100</v>
+        <v>1600</v>
       </c>
       <c r="F17" s="3">
-        <v>-2500</v>
+        <v>83600</v>
       </c>
       <c r="G17" s="3">
-        <v>-3700</v>
+        <v>-1900</v>
       </c>
       <c r="H17" s="3">
-        <v>-13900</v>
+        <v>-2800</v>
       </c>
       <c r="I17" s="3">
-        <v>-21600</v>
+        <v>-10700</v>
       </c>
       <c r="J17" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="K17" s="3">
         <v>-2100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>-12000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>-19100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>127800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>-3800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>34400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>200300</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,52 +1244,55 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-109100</v>
+        <v>-1600</v>
       </c>
       <c r="F18" s="3">
-        <v>2500</v>
+        <v>-83600</v>
       </c>
       <c r="G18" s="3">
-        <v>3700</v>
+        <v>1900</v>
       </c>
       <c r="H18" s="3">
-        <v>13900</v>
+        <v>2800</v>
       </c>
       <c r="I18" s="3">
-        <v>21600</v>
+        <v>10700</v>
       </c>
       <c r="J18" s="3">
+        <v>16600</v>
+      </c>
+      <c r="K18" s="3">
         <v>2100</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="3">
         <v>-1100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-127800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-133500</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1288,52 +1322,55 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>-9700</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>2900</v>
+        <v>-7400</v>
       </c>
       <c r="G20" s="3">
-        <v>2900</v>
+        <v>2200</v>
       </c>
       <c r="H20" s="3">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="I20" s="3">
-        <v>1400</v>
+        <v>2300</v>
       </c>
       <c r="J20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K20" s="3">
         <v>2100</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="3">
         <v>-20100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-19800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1341,52 +1378,55 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-118700</v>
+        <v>-1500</v>
       </c>
       <c r="F21" s="3">
-        <v>5400</v>
+        <v>-91000</v>
       </c>
       <c r="G21" s="3">
-        <v>6600</v>
+        <v>4200</v>
       </c>
       <c r="H21" s="3">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="I21" s="3">
-        <v>23100</v>
+        <v>13100</v>
       </c>
       <c r="J21" s="3">
+        <v>17700</v>
+      </c>
+      <c r="K21" s="3">
         <v>4200</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3">
         <v>-21200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-147500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>6100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>10600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-116500</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1405,8 +1445,8 @@
       <c r="H22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1432,67 +1472,73 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S22" s="3">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T22" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2000</v>
+        <v>12600</v>
       </c>
       <c r="E23" s="3">
-        <v>-118700</v>
+        <v>-1500</v>
       </c>
       <c r="F23" s="3">
-        <v>5400</v>
+        <v>-91000</v>
       </c>
       <c r="G23" s="3">
-        <v>6500</v>
+        <v>4100</v>
       </c>
       <c r="H23" s="3">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="I23" s="3">
-        <v>23100</v>
+        <v>13000</v>
       </c>
       <c r="J23" s="3">
+        <v>17700</v>
+      </c>
+      <c r="K23" s="3">
         <v>4200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>14700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>21800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-21200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-147500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>6100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-138600</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1517,14 +1563,14 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>4</v>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="M24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1539,13 +1585,16 @@
         <v>0</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-2000</v>
+        <v>12600</v>
       </c>
       <c r="E26" s="3">
-        <v>-118700</v>
+        <v>-1500</v>
       </c>
       <c r="F26" s="3">
-        <v>5400</v>
+        <v>-91000</v>
       </c>
       <c r="G26" s="3">
-        <v>6500</v>
+        <v>4100</v>
       </c>
       <c r="H26" s="3">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="I26" s="3">
-        <v>23100</v>
+        <v>13000</v>
       </c>
       <c r="J26" s="3">
+        <v>17700</v>
+      </c>
+      <c r="K26" s="3">
         <v>4200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>14700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>21800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-21200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-147500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>6100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-141900</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-2000</v>
+        <v>12600</v>
       </c>
       <c r="E27" s="3">
-        <v>-118700</v>
+        <v>-1500</v>
       </c>
       <c r="F27" s="3">
-        <v>5400</v>
+        <v>-91000</v>
       </c>
       <c r="G27" s="3">
-        <v>6500</v>
+        <v>4100</v>
       </c>
       <c r="H27" s="3">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="I27" s="3">
-        <v>23100</v>
+        <v>13000</v>
       </c>
       <c r="J27" s="3">
+        <v>17700</v>
+      </c>
+      <c r="K27" s="3">
         <v>4200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>14700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>21800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-21200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-147500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>6100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-142300</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1924,105 +1994,111 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>9700</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>-2900</v>
+        <v>7400</v>
       </c>
       <c r="G32" s="3">
-        <v>-2900</v>
+        <v>-2200</v>
       </c>
       <c r="H32" s="3">
-        <v>-3000</v>
+        <v>-2200</v>
       </c>
       <c r="I32" s="3">
-        <v>-1400</v>
+        <v>-2300</v>
       </c>
       <c r="J32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-2100</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="3">
         <v>20100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>19800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-2000</v>
+        <v>12600</v>
       </c>
       <c r="E33" s="3">
-        <v>-118700</v>
+        <v>-1500</v>
       </c>
       <c r="F33" s="3">
-        <v>5400</v>
+        <v>-91000</v>
       </c>
       <c r="G33" s="3">
-        <v>6500</v>
+        <v>4100</v>
       </c>
       <c r="H33" s="3">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="I33" s="3">
-        <v>23100</v>
+        <v>13000</v>
       </c>
       <c r="J33" s="3">
+        <v>17700</v>
+      </c>
+      <c r="K33" s="3">
         <v>4200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>14700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>21800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-21200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-147500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>6100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-142300</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-2000</v>
+        <v>12600</v>
       </c>
       <c r="E35" s="3">
-        <v>-118700</v>
+        <v>-1500</v>
       </c>
       <c r="F35" s="3">
-        <v>5400</v>
+        <v>-91000</v>
       </c>
       <c r="G35" s="3">
-        <v>6500</v>
+        <v>4100</v>
       </c>
       <c r="H35" s="3">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="I35" s="3">
-        <v>23100</v>
+        <v>13000</v>
       </c>
       <c r="J35" s="3">
+        <v>17700</v>
+      </c>
+      <c r="K35" s="3">
         <v>4200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>14700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>21800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-21200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-147500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>6100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-142300</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>65700</v>
+        <v>53000</v>
       </c>
       <c r="E41" s="3">
-        <v>69800</v>
+        <v>50400</v>
       </c>
       <c r="F41" s="3">
-        <v>72800</v>
+        <v>53500</v>
       </c>
       <c r="G41" s="3">
-        <v>76400</v>
+        <v>55800</v>
       </c>
       <c r="H41" s="3">
-        <v>79900</v>
+        <v>58500</v>
       </c>
       <c r="I41" s="3">
-        <v>81100</v>
+        <v>61200</v>
       </c>
       <c r="J41" s="3">
+        <v>62200</v>
+      </c>
+      <c r="K41" s="3">
         <v>82800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>64900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>50600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>31100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>13600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>8800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>10400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>14300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>18800</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,61 +2423,67 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>11400</v>
+        <v>5200</v>
       </c>
       <c r="E43" s="3">
-        <v>9600</v>
+        <v>8700</v>
       </c>
       <c r="F43" s="3">
-        <v>7900</v>
+        <v>7400</v>
       </c>
       <c r="G43" s="3">
-        <v>6400</v>
+        <v>6100</v>
       </c>
       <c r="H43" s="3">
         <v>4900</v>
       </c>
       <c r="I43" s="3">
+        <v>3800</v>
+      </c>
+      <c r="J43" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K43" s="3">
         <v>3700</v>
       </c>
-      <c r="J43" s="3">
-        <v>3700</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,196 +2535,208 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="E45" s="3">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F45" s="3">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="G45" s="3">
+        <v>900</v>
+      </c>
+      <c r="H45" s="3">
+        <v>200</v>
+      </c>
+      <c r="I45" s="3">
+        <v>500</v>
+      </c>
+      <c r="J45" s="3">
+        <v>500</v>
+      </c>
+      <c r="K45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3">
-        <v>600</v>
-      </c>
-      <c r="I45" s="3">
-        <v>700</v>
-      </c>
-      <c r="J45" s="3">
-        <v>1400</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
+        <v>500</v>
+      </c>
+      <c r="N45" s="3">
         <v>300</v>
       </c>
-      <c r="L45" s="3">
-        <v>500</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
+        <v>400</v>
+      </c>
+      <c r="P45" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q45" s="3">
         <v>300</v>
       </c>
-      <c r="N45" s="3">
-        <v>400</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="R45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="S45" s="3">
         <v>300</v>
       </c>
-      <c r="Q45" s="3">
-        <v>200</v>
-      </c>
-      <c r="R45" s="3">
-        <v>300</v>
-      </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>539300</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>77800</v>
+        <v>58400</v>
       </c>
       <c r="E46" s="3">
-        <v>80400</v>
+        <v>59600</v>
       </c>
       <c r="F46" s="3">
-        <v>81900</v>
+        <v>61700</v>
       </c>
       <c r="G46" s="3">
-        <v>83100</v>
+        <v>62800</v>
       </c>
       <c r="H46" s="3">
-        <v>85400</v>
+        <v>63700</v>
       </c>
       <c r="I46" s="3">
-        <v>85500</v>
+        <v>65500</v>
       </c>
       <c r="J46" s="3">
+        <v>65500</v>
+      </c>
+      <c r="K46" s="3">
         <v>87900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>68200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>54100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>35800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>17100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>8600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>9600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>13100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>15900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>559000</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>94500</v>
+        <v>85600</v>
       </c>
       <c r="E47" s="3">
-        <v>94500</v>
+        <v>72400</v>
       </c>
       <c r="F47" s="3">
-        <v>210800</v>
+        <v>72400</v>
       </c>
       <c r="G47" s="3">
-        <v>203500</v>
+        <v>161600</v>
       </c>
       <c r="H47" s="3">
-        <v>193300</v>
+        <v>156000</v>
       </c>
       <c r="I47" s="3">
-        <v>179300</v>
+        <v>148200</v>
       </c>
       <c r="J47" s="3">
+        <v>137500</v>
+      </c>
+      <c r="K47" s="3">
         <v>153400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>110600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>108700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>108000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>148100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>304000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>295600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>299400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>298400</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2700</v>
+        <v>2000</v>
       </c>
       <c r="E48" s="3">
-        <v>2700</v>
+        <v>2100</v>
       </c>
       <c r="F48" s="3">
-        <v>2800</v>
+        <v>2100</v>
       </c>
       <c r="G48" s="3">
-        <v>2800</v>
+        <v>2100</v>
       </c>
       <c r="H48" s="3">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="I48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J48" s="3">
+        <v>600</v>
+      </c>
+      <c r="K48" s="3">
         <v>800</v>
       </c>
-      <c r="J48" s="3">
-        <v>800</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>600</v>
-      </c>
-      <c r="L48" s="3">
-        <v>700</v>
       </c>
       <c r="M48" s="3">
         <v>700</v>
@@ -2637,7 +2745,7 @@
         <v>700</v>
       </c>
       <c r="O48" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="P48" s="3">
         <v>100</v>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>174900</v>
+        <v>146100</v>
       </c>
       <c r="E54" s="3">
-        <v>177700</v>
+        <v>134100</v>
       </c>
       <c r="F54" s="3">
-        <v>295400</v>
+        <v>136200</v>
       </c>
       <c r="G54" s="3">
-        <v>289400</v>
+        <v>226500</v>
       </c>
       <c r="H54" s="3">
-        <v>281500</v>
+        <v>221800</v>
       </c>
       <c r="I54" s="3">
-        <v>265600</v>
+        <v>215800</v>
       </c>
       <c r="J54" s="3">
+        <v>203600</v>
+      </c>
+      <c r="K54" s="3">
         <v>242100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>179400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>163500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>144500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>166000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>312700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>305300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>312600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>314400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>559100</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,61 +3141,65 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H57" s="3">
         <v>2700</v>
       </c>
-      <c r="E57" s="3">
-        <v>3300</v>
-      </c>
-      <c r="F57" s="3">
-        <v>3600</v>
-      </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J57" s="3">
         <v>3500</v>
       </c>
-      <c r="H57" s="3">
-        <v>3200</v>
-      </c>
-      <c r="I57" s="3">
-        <v>4600</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3102,14 +3236,14 @@
       <c r="N58" s="3">
         <v>100</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
+      <c r="O58" s="3">
+        <v>100</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -3117,8 +3251,11 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3164,93 +3301,99 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T59" s="3">
         <v>241800</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G60" s="3">
         <v>2900</v>
       </c>
-      <c r="E60" s="3">
-        <v>3400</v>
-      </c>
-      <c r="F60" s="3">
-        <v>3800</v>
-      </c>
-      <c r="G60" s="3">
-        <v>3700</v>
-      </c>
       <c r="H60" s="3">
-        <v>3300</v>
+        <v>2800</v>
       </c>
       <c r="I60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J60" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K60" s="3">
+        <v>5100</v>
+      </c>
+      <c r="L60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="M60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="O60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="P60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R60" s="3">
+        <v>3500</v>
+      </c>
+      <c r="S60" s="3">
         <v>4700</v>
       </c>
-      <c r="J60" s="3">
-        <v>5100</v>
-      </c>
-      <c r="K60" s="3">
-        <v>2600</v>
-      </c>
-      <c r="L60" s="3">
-        <v>1600</v>
-      </c>
-      <c r="M60" s="3">
-        <v>2300</v>
-      </c>
-      <c r="N60" s="3">
-        <v>2000</v>
-      </c>
-      <c r="O60" s="3">
-        <v>2400</v>
-      </c>
-      <c r="P60" s="3">
-        <v>1600</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>3500</v>
-      </c>
-      <c r="R60" s="3">
-        <v>4700</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>247600</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>300</v>
+      </c>
+      <c r="E61" s="3">
+        <v>300</v>
+      </c>
+      <c r="F61" s="3">
+        <v>300</v>
+      </c>
+      <c r="G61" s="3">
+        <v>300</v>
+      </c>
+      <c r="H61" s="3">
         <v>400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="I61" s="3">
         <v>400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="J61" s="3">
         <v>400</v>
       </c>
-      <c r="G61" s="3">
-        <v>500</v>
-      </c>
-      <c r="H61" s="3">
-        <v>500</v>
-      </c>
-      <c r="I61" s="3">
-        <v>500</v>
-      </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>600</v>
-      </c>
-      <c r="K61" s="3">
-        <v>500</v>
       </c>
       <c r="L61" s="3">
         <v>500</v>
@@ -3262,7 +3405,7 @@
         <v>500</v>
       </c>
       <c r="O61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
@@ -3276,61 +3419,67 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E62" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="F62" s="3">
         <v>500</v>
       </c>
       <c r="G62" s="3">
+        <v>400</v>
+      </c>
+      <c r="H62" s="3">
+        <v>500</v>
+      </c>
+      <c r="I62" s="3">
+        <v>400</v>
+      </c>
+      <c r="J62" s="3">
+        <v>700</v>
+      </c>
+      <c r="K62" s="3">
         <v>600</v>
       </c>
-      <c r="H62" s="3">
-        <v>600</v>
-      </c>
-      <c r="I62" s="3">
-        <v>900</v>
-      </c>
-      <c r="J62" s="3">
-        <v>600</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>400</v>
-      </c>
-      <c r="N62" s="3">
-        <v>300</v>
       </c>
       <c r="O62" s="3">
         <v>300</v>
       </c>
       <c r="P62" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q62" s="3">
         <v>100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G66" s="3">
         <v>3600</v>
       </c>
-      <c r="E66" s="3">
-        <v>4500</v>
-      </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J66" s="3">
         <v>4700</v>
       </c>
-      <c r="G66" s="3">
-        <v>4700</v>
-      </c>
-      <c r="H66" s="3">
-        <v>4400</v>
-      </c>
-      <c r="I66" s="3">
-        <v>6100</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>249400</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-652500</v>
+        <v>-487700</v>
       </c>
       <c r="E72" s="3">
-        <v>-650500</v>
+        <v>-500200</v>
       </c>
       <c r="F72" s="3">
-        <v>-531800</v>
+        <v>-498700</v>
       </c>
       <c r="G72" s="3">
-        <v>-537100</v>
+        <v>-407700</v>
       </c>
       <c r="H72" s="3">
-        <v>-543700</v>
+        <v>-411800</v>
       </c>
       <c r="I72" s="3">
-        <v>-560700</v>
+        <v>-416800</v>
       </c>
       <c r="J72" s="3">
+        <v>-429800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-583700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-450700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-465400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-487200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-466000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-318500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-275200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-270000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-269300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-269200</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>171300</v>
+        <v>143500</v>
       </c>
       <c r="E76" s="3">
-        <v>173200</v>
+        <v>131300</v>
       </c>
       <c r="F76" s="3">
-        <v>290700</v>
+        <v>132800</v>
       </c>
       <c r="G76" s="3">
-        <v>284600</v>
+        <v>222900</v>
       </c>
       <c r="H76" s="3">
-        <v>277100</v>
+        <v>218200</v>
       </c>
       <c r="I76" s="3">
-        <v>259400</v>
+        <v>212400</v>
       </c>
       <c r="J76" s="3">
+        <v>198900</v>
+      </c>
+      <c r="K76" s="3">
         <v>235800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>176100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>160900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>141300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>163100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>310000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>303700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>308800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>309500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>309700</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-2000</v>
+        <v>12600</v>
       </c>
       <c r="E81" s="3">
-        <v>-118700</v>
+        <v>-1500</v>
       </c>
       <c r="F81" s="3">
-        <v>5400</v>
+        <v>-91000</v>
       </c>
       <c r="G81" s="3">
-        <v>6500</v>
+        <v>4100</v>
       </c>
       <c r="H81" s="3">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="I81" s="3">
-        <v>23100</v>
+        <v>13000</v>
       </c>
       <c r="J81" s="3">
+        <v>17700</v>
+      </c>
+      <c r="K81" s="3">
         <v>4200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>14700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>21800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-21200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-147500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>6100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-142300</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4245,14 +4444,14 @@
         <v>0</v>
       </c>
       <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3">
-        <v>100</v>
-      </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
@@ -4272,13 +4471,16 @@
         <v>0</v>
       </c>
       <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
         <v>11700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>16900</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-4100</v>
+        <v>2600</v>
       </c>
       <c r="E89" s="3">
-        <v>-3000</v>
+        <v>-3200</v>
       </c>
       <c r="F89" s="3">
-        <v>-3700</v>
+        <v>-2300</v>
       </c>
       <c r="G89" s="3">
-        <v>-4100</v>
+        <v>-2800</v>
       </c>
       <c r="H89" s="3">
-        <v>-6100</v>
+        <v>-3100</v>
       </c>
       <c r="I89" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K89" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="L89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="M89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="N89" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="O89" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="P89" s="3">
         <v>-2000</v>
       </c>
-      <c r="J89" s="3">
-        <v>-3900</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-800</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="Q89" s="3">
         <v>-1600</v>
       </c>
-      <c r="N89" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>13400</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4664,13 +4885,16 @@
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-4300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-22900</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4787,49 +5017,52 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H94" s="3">
-        <v>4600</v>
+        <v>300</v>
       </c>
       <c r="I94" s="3">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>15200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>22500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>20100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>10000</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-26400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>158100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-22900</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5073,35 +5319,35 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
-        <v>200</v>
-      </c>
       <c r="H100" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="I100" s="3">
         <v>200</v>
       </c>
       <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
         <v>1700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
@@ -5109,13 +5355,16 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>-164900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5135,20 +5384,20 @@
         <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
@@ -5162,62 +5411,68 @@
         <v>0</v>
       </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-4100</v>
+        <v>2600</v>
       </c>
       <c r="E102" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="F102" s="3">
-        <v>-3500</v>
+        <v>-2300</v>
       </c>
       <c r="G102" s="3">
-        <v>-3500</v>
+        <v>-2700</v>
       </c>
       <c r="H102" s="3">
-        <v>-1200</v>
+        <v>-2700</v>
       </c>
       <c r="I102" s="3">
-        <v>-1700</v>
+        <v>-900</v>
       </c>
       <c r="J102" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>14400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>19500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>17500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>6800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-28300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-3800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>3900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GAU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GAU_QTR_FIN.xlsx
@@ -945,16 +945,16 @@
         <v>100</v>
       </c>
       <c r="E12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H12" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>4</v>
@@ -1060,7 +1060,7 @@
         <v>4</v>
       </c>
       <c r="F14" s="3">
-        <v>7600</v>
+        <v>10200</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
@@ -1128,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1185,25 +1185,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="E17" s="3">
-        <v>1600</v>
+        <v>2100</v>
       </c>
       <c r="F17" s="3">
-        <v>83600</v>
+        <v>111400</v>
       </c>
       <c r="G17" s="3">
-        <v>-1900</v>
+        <v>-2600</v>
       </c>
       <c r="H17" s="3">
-        <v>-2800</v>
+        <v>-3700</v>
       </c>
       <c r="I17" s="3">
-        <v>-10700</v>
+        <v>-14200</v>
       </c>
       <c r="J17" s="3">
-        <v>-16600</v>
+        <v>-22100</v>
       </c>
       <c r="K17" s="3">
         <v>-2100</v>
@@ -1244,22 +1244,22 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-1600</v>
+        <v>-2100</v>
       </c>
       <c r="F18" s="3">
-        <v>-83600</v>
+        <v>-111400</v>
       </c>
       <c r="G18" s="3">
-        <v>1900</v>
+        <v>2600</v>
       </c>
       <c r="H18" s="3">
-        <v>2800</v>
+        <v>3700</v>
       </c>
       <c r="I18" s="3">
-        <v>10700</v>
+        <v>14200</v>
       </c>
       <c r="J18" s="3">
-        <v>16600</v>
+        <v>22100</v>
       </c>
       <c r="K18" s="3">
         <v>2100</v>
@@ -1322,22 +1322,22 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
-        <v>-7400</v>
+        <v>-9900</v>
       </c>
       <c r="G20" s="3">
-        <v>2200</v>
+        <v>2900</v>
       </c>
       <c r="H20" s="3">
-        <v>2200</v>
+        <v>2900</v>
       </c>
       <c r="I20" s="3">
-        <v>2300</v>
+        <v>3100</v>
       </c>
       <c r="J20" s="3">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="K20" s="3">
         <v>2100</v>
@@ -1378,22 +1378,22 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-1500</v>
+        <v>-2000</v>
       </c>
       <c r="F21" s="3">
-        <v>-91000</v>
+        <v>-121200</v>
       </c>
       <c r="G21" s="3">
-        <v>4200</v>
+        <v>5500</v>
       </c>
       <c r="H21" s="3">
-        <v>5000</v>
+        <v>6700</v>
       </c>
       <c r="I21" s="3">
-        <v>13100</v>
+        <v>17400</v>
       </c>
       <c r="J21" s="3">
-        <v>17700</v>
+        <v>23600</v>
       </c>
       <c r="K21" s="3">
         <v>4200</v>
@@ -1487,25 +1487,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>12600</v>
+        <v>16700</v>
       </c>
       <c r="E23" s="3">
-        <v>-1500</v>
+        <v>-2000</v>
       </c>
       <c r="F23" s="3">
-        <v>-91000</v>
+        <v>-121200</v>
       </c>
       <c r="G23" s="3">
-        <v>4100</v>
+        <v>5500</v>
       </c>
       <c r="H23" s="3">
-        <v>5000</v>
+        <v>6700</v>
       </c>
       <c r="I23" s="3">
-        <v>13000</v>
+        <v>17400</v>
       </c>
       <c r="J23" s="3">
-        <v>17700</v>
+        <v>23500</v>
       </c>
       <c r="K23" s="3">
         <v>4200</v>
@@ -1655,25 +1655,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>12600</v>
+        <v>16700</v>
       </c>
       <c r="E26" s="3">
-        <v>-1500</v>
+        <v>-2000</v>
       </c>
       <c r="F26" s="3">
-        <v>-91000</v>
+        <v>-121200</v>
       </c>
       <c r="G26" s="3">
-        <v>4100</v>
+        <v>5500</v>
       </c>
       <c r="H26" s="3">
-        <v>5000</v>
+        <v>6700</v>
       </c>
       <c r="I26" s="3">
-        <v>13000</v>
+        <v>17400</v>
       </c>
       <c r="J26" s="3">
-        <v>17700</v>
+        <v>23500</v>
       </c>
       <c r="K26" s="3">
         <v>4200</v>
@@ -1711,25 +1711,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>12600</v>
+        <v>16700</v>
       </c>
       <c r="E27" s="3">
-        <v>-1500</v>
+        <v>-2000</v>
       </c>
       <c r="F27" s="3">
-        <v>-91000</v>
+        <v>-121200</v>
       </c>
       <c r="G27" s="3">
-        <v>4100</v>
+        <v>5500</v>
       </c>
       <c r="H27" s="3">
-        <v>5000</v>
+        <v>6700</v>
       </c>
       <c r="I27" s="3">
-        <v>13000</v>
+        <v>17400</v>
       </c>
       <c r="J27" s="3">
-        <v>17700</v>
+        <v>23500</v>
       </c>
       <c r="K27" s="3">
         <v>4200</v>
@@ -1994,22 +1994,22 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
-        <v>7400</v>
+        <v>9900</v>
       </c>
       <c r="G32" s="3">
-        <v>-2200</v>
+        <v>-2900</v>
       </c>
       <c r="H32" s="3">
-        <v>-2200</v>
+        <v>-2900</v>
       </c>
       <c r="I32" s="3">
-        <v>-2300</v>
+        <v>-3100</v>
       </c>
       <c r="J32" s="3">
-        <v>-1100</v>
+        <v>-1500</v>
       </c>
       <c r="K32" s="3">
         <v>-2100</v>
@@ -2047,25 +2047,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>12600</v>
+        <v>16700</v>
       </c>
       <c r="E33" s="3">
-        <v>-1500</v>
+        <v>-2000</v>
       </c>
       <c r="F33" s="3">
-        <v>-91000</v>
+        <v>-121200</v>
       </c>
       <c r="G33" s="3">
-        <v>4100</v>
+        <v>5500</v>
       </c>
       <c r="H33" s="3">
-        <v>5000</v>
+        <v>6700</v>
       </c>
       <c r="I33" s="3">
-        <v>13000</v>
+        <v>17400</v>
       </c>
       <c r="J33" s="3">
-        <v>17700</v>
+        <v>23500</v>
       </c>
       <c r="K33" s="3">
         <v>4200</v>
@@ -2159,25 +2159,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>12600</v>
+        <v>16700</v>
       </c>
       <c r="E35" s="3">
-        <v>-1500</v>
+        <v>-2000</v>
       </c>
       <c r="F35" s="3">
-        <v>-91000</v>
+        <v>-121200</v>
       </c>
       <c r="G35" s="3">
-        <v>4100</v>
+        <v>5500</v>
       </c>
       <c r="H35" s="3">
-        <v>5000</v>
+        <v>6700</v>
       </c>
       <c r="I35" s="3">
-        <v>13000</v>
+        <v>17400</v>
       </c>
       <c r="J35" s="3">
-        <v>17700</v>
+        <v>23500</v>
       </c>
       <c r="K35" s="3">
         <v>4200</v>
@@ -2320,25 +2320,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>53000</v>
+        <v>70600</v>
       </c>
       <c r="E41" s="3">
-        <v>50400</v>
+        <v>67100</v>
       </c>
       <c r="F41" s="3">
-        <v>53500</v>
+        <v>71300</v>
       </c>
       <c r="G41" s="3">
-        <v>55800</v>
+        <v>74400</v>
       </c>
       <c r="H41" s="3">
-        <v>58500</v>
+        <v>78000</v>
       </c>
       <c r="I41" s="3">
-        <v>61200</v>
+        <v>81600</v>
       </c>
       <c r="J41" s="3">
-        <v>62200</v>
+        <v>82800</v>
       </c>
       <c r="K41" s="3">
         <v>82800</v>
@@ -2432,25 +2432,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5200</v>
+        <v>6900</v>
       </c>
       <c r="E43" s="3">
-        <v>8700</v>
+        <v>11600</v>
       </c>
       <c r="F43" s="3">
-        <v>7400</v>
+        <v>9800</v>
       </c>
       <c r="G43" s="3">
-        <v>6100</v>
+        <v>8100</v>
       </c>
       <c r="H43" s="3">
-        <v>4900</v>
+        <v>6500</v>
       </c>
       <c r="I43" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J43" s="3">
         <v>3800</v>
-      </c>
-      <c r="J43" s="3">
-        <v>2900</v>
       </c>
       <c r="K43" s="3">
         <v>3700</v>
@@ -2547,22 +2547,22 @@
         <v>300</v>
       </c>
       <c r="E45" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="F45" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="G45" s="3">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="H45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I45" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J45" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K45" s="3">
         <v>1400</v>
@@ -2600,25 +2600,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>58400</v>
+        <v>77800</v>
       </c>
       <c r="E46" s="3">
-        <v>59600</v>
+        <v>79400</v>
       </c>
       <c r="F46" s="3">
-        <v>61700</v>
+        <v>82100</v>
       </c>
       <c r="G46" s="3">
-        <v>62800</v>
+        <v>83600</v>
       </c>
       <c r="H46" s="3">
-        <v>63700</v>
+        <v>84800</v>
       </c>
       <c r="I46" s="3">
-        <v>65500</v>
+        <v>87200</v>
       </c>
       <c r="J46" s="3">
-        <v>65500</v>
+        <v>87300</v>
       </c>
       <c r="K46" s="3">
         <v>87900</v>
@@ -2656,25 +2656,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>85600</v>
+        <v>114100</v>
       </c>
       <c r="E47" s="3">
-        <v>72400</v>
+        <v>96500</v>
       </c>
       <c r="F47" s="3">
-        <v>72400</v>
+        <v>96500</v>
       </c>
       <c r="G47" s="3">
-        <v>161600</v>
+        <v>215200</v>
       </c>
       <c r="H47" s="3">
-        <v>156000</v>
+        <v>207700</v>
       </c>
       <c r="I47" s="3">
-        <v>148200</v>
+        <v>197300</v>
       </c>
       <c r="J47" s="3">
-        <v>137500</v>
+        <v>183100</v>
       </c>
       <c r="K47" s="3">
         <v>153400</v>
@@ -2712,25 +2712,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="E48" s="3">
-        <v>2100</v>
+        <v>2800</v>
       </c>
       <c r="F48" s="3">
-        <v>2100</v>
+        <v>2800</v>
       </c>
       <c r="G48" s="3">
-        <v>2100</v>
+        <v>2800</v>
       </c>
       <c r="H48" s="3">
-        <v>2200</v>
+        <v>2900</v>
       </c>
       <c r="I48" s="3">
-        <v>2200</v>
+        <v>2900</v>
       </c>
       <c r="J48" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K48" s="3">
         <v>800</v>
@@ -3048,25 +3048,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>146100</v>
+        <v>194600</v>
       </c>
       <c r="E54" s="3">
-        <v>134100</v>
+        <v>178600</v>
       </c>
       <c r="F54" s="3">
-        <v>136200</v>
+        <v>181400</v>
       </c>
       <c r="G54" s="3">
-        <v>226500</v>
+        <v>301600</v>
       </c>
       <c r="H54" s="3">
-        <v>221800</v>
+        <v>295400</v>
       </c>
       <c r="I54" s="3">
-        <v>215800</v>
+        <v>287400</v>
       </c>
       <c r="J54" s="3">
-        <v>203600</v>
+        <v>271100</v>
       </c>
       <c r="K54" s="3">
         <v>242100</v>
@@ -3148,25 +3148,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="E57" s="3">
-        <v>2100</v>
+        <v>2800</v>
       </c>
       <c r="F57" s="3">
-        <v>2500</v>
+        <v>3400</v>
       </c>
       <c r="G57" s="3">
-        <v>2800</v>
+        <v>3700</v>
       </c>
       <c r="H57" s="3">
-        <v>2700</v>
+        <v>3600</v>
       </c>
       <c r="I57" s="3">
-        <v>2500</v>
+        <v>3300</v>
       </c>
       <c r="J57" s="3">
-        <v>3500</v>
+        <v>4700</v>
       </c>
       <c r="K57" s="3">
         <v>5000</v>
@@ -3316,25 +3316,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2100</v>
+        <v>2800</v>
       </c>
       <c r="E60" s="3">
-        <v>2200</v>
+        <v>2900</v>
       </c>
       <c r="F60" s="3">
-        <v>2600</v>
+        <v>3500</v>
       </c>
       <c r="G60" s="3">
-        <v>2900</v>
+        <v>3800</v>
       </c>
       <c r="H60" s="3">
-        <v>2800</v>
+        <v>3700</v>
       </c>
       <c r="I60" s="3">
-        <v>2600</v>
+        <v>3400</v>
       </c>
       <c r="J60" s="3">
-        <v>3600</v>
+        <v>4800</v>
       </c>
       <c r="K60" s="3">
         <v>5100</v>
@@ -3375,22 +3375,22 @@
         <v>300</v>
       </c>
       <c r="E61" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F61" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G61" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H61" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I61" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J61" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K61" s="3">
         <v>600</v>
@@ -3428,25 +3428,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E62" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F62" s="3">
+        <v>600</v>
+      </c>
+      <c r="G62" s="3">
         <v>500</v>
       </c>
-      <c r="G62" s="3">
-        <v>400</v>
-      </c>
       <c r="H62" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I62" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="J62" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="K62" s="3">
         <v>600</v>
@@ -3652,25 +3652,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="E66" s="3">
-        <v>2800</v>
+        <v>3700</v>
       </c>
       <c r="F66" s="3">
-        <v>3400</v>
+        <v>4600</v>
       </c>
       <c r="G66" s="3">
-        <v>3600</v>
+        <v>4800</v>
       </c>
       <c r="H66" s="3">
-        <v>3600</v>
+        <v>4800</v>
       </c>
       <c r="I66" s="3">
-        <v>3400</v>
+        <v>4500</v>
       </c>
       <c r="J66" s="3">
-        <v>4700</v>
+        <v>6300</v>
       </c>
       <c r="K66" s="3">
         <v>6400</v>
@@ -3954,25 +3954,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-487700</v>
+        <v>-649500</v>
       </c>
       <c r="E72" s="3">
-        <v>-500200</v>
+        <v>-666200</v>
       </c>
       <c r="F72" s="3">
-        <v>-498700</v>
+        <v>-664200</v>
       </c>
       <c r="G72" s="3">
-        <v>-407700</v>
+        <v>-542900</v>
       </c>
       <c r="H72" s="3">
-        <v>-411800</v>
+        <v>-548400</v>
       </c>
       <c r="I72" s="3">
-        <v>-416800</v>
+        <v>-555100</v>
       </c>
       <c r="J72" s="3">
-        <v>-429800</v>
+        <v>-572400</v>
       </c>
       <c r="K72" s="3">
         <v>-583700</v>
@@ -4178,25 +4178,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>143500</v>
+        <v>191000</v>
       </c>
       <c r="E76" s="3">
-        <v>131300</v>
+        <v>174900</v>
       </c>
       <c r="F76" s="3">
-        <v>132800</v>
+        <v>176800</v>
       </c>
       <c r="G76" s="3">
-        <v>222900</v>
+        <v>296800</v>
       </c>
       <c r="H76" s="3">
-        <v>218200</v>
+        <v>290600</v>
       </c>
       <c r="I76" s="3">
-        <v>212400</v>
+        <v>282900</v>
       </c>
       <c r="J76" s="3">
-        <v>198900</v>
+        <v>264900</v>
       </c>
       <c r="K76" s="3">
         <v>235800</v>
@@ -4351,25 +4351,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>12600</v>
+        <v>16700</v>
       </c>
       <c r="E81" s="3">
-        <v>-1500</v>
+        <v>-2000</v>
       </c>
       <c r="F81" s="3">
-        <v>-91000</v>
+        <v>-121200</v>
       </c>
       <c r="G81" s="3">
-        <v>4100</v>
+        <v>5500</v>
       </c>
       <c r="H81" s="3">
-        <v>5000</v>
+        <v>6700</v>
       </c>
       <c r="I81" s="3">
-        <v>13000</v>
+        <v>17400</v>
       </c>
       <c r="J81" s="3">
-        <v>17700</v>
+        <v>23500</v>
       </c>
       <c r="K81" s="3">
         <v>4200</v>
@@ -4447,7 +4447,7 @@
         <v>0</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K83" s="3">
         <v>100</v>
@@ -4765,25 +4765,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2600</v>
+        <v>3400</v>
       </c>
       <c r="E89" s="3">
-        <v>-3200</v>
+        <v>-4200</v>
       </c>
       <c r="F89" s="3">
-        <v>-2300</v>
+        <v>-3000</v>
       </c>
       <c r="G89" s="3">
-        <v>-2800</v>
+        <v>-3800</v>
       </c>
       <c r="H89" s="3">
-        <v>-3100</v>
+        <v>-4200</v>
       </c>
       <c r="I89" s="3">
-        <v>-4700</v>
+        <v>-6200</v>
       </c>
       <c r="J89" s="3">
-        <v>-1600</v>
+        <v>-2100</v>
       </c>
       <c r="K89" s="3">
         <v>-3900</v>
@@ -5011,22 +5011,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>200</v>
+      </c>
+      <c r="E94" s="3">
         <v>100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H94" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I94" s="3">
-        <v>3500</v>
+        <v>4700</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
@@ -5325,13 +5325,13 @@
         <v>100</v>
       </c>
       <c r="H100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I100" s="3">
+        <v>300</v>
+      </c>
+      <c r="J100" s="3">
         <v>200</v>
-      </c>
-      <c r="J100" s="3">
-        <v>100</v>
       </c>
       <c r="K100" s="3">
         <v>1700</v>
@@ -5425,25 +5425,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2600</v>
+        <v>3500</v>
       </c>
       <c r="E102" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-3100</v>
       </c>
-      <c r="F102" s="3">
-        <v>-2300</v>
-      </c>
       <c r="G102" s="3">
-        <v>-2700</v>
+        <v>-3600</v>
       </c>
       <c r="H102" s="3">
-        <v>-2700</v>
+        <v>-3600</v>
       </c>
       <c r="I102" s="3">
-        <v>-900</v>
+        <v>-1200</v>
       </c>
       <c r="J102" s="3">
-        <v>-1300</v>
+        <v>-1800</v>
       </c>
       <c r="K102" s="3">
         <v>-1900</v>

--- a/AAII_Financials/Quarterly/GAU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GAU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
   <si>
     <t>GAU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,93 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,14 +779,14 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>4</v>
+      <c r="L8" s="3">
+        <v>0</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
+      <c r="N8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
@@ -797,13 +801,16 @@
         <v>0</v>
       </c>
       <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
         <v>30700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>66800</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -852,14 +859,17 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S9" s="3">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T9" s="3">
         <v>33400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>50700</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,14 +918,17 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S10" s="3">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10" s="3">
         <v>-2700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,28 +949,29 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>300</v>
+      </c>
+      <c r="E12" s="3">
         <v>100</v>
       </c>
-      <c r="E12" s="3">
-        <v>200</v>
-      </c>
       <c r="F12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H12" s="3">
-        <v>500</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="I12" s="3">
+        <v>400</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>4</v>
@@ -986,14 +1000,17 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S12" s="3">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T12" s="3">
         <v>400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1059,11 +1079,11 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>10200</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
+        <v>7600</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
@@ -1083,8 +1103,8 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1092,20 +1112,23 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>-1300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>144600</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1128,11 +1151,11 @@
         <v>0</v>
       </c>
       <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
         <v>100</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
       <c r="L15" s="3">
         <v>0</v>
       </c>
@@ -1145,8 +1168,8 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>4</v>
+      <c r="P15" s="3">
+        <v>0</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>4</v>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,64 +1205,68 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1000</v>
+        <v>2400</v>
       </c>
       <c r="E17" s="3">
-        <v>2100</v>
+        <v>800</v>
       </c>
       <c r="F17" s="3">
-        <v>111400</v>
+        <v>1600</v>
       </c>
       <c r="G17" s="3">
-        <v>-2600</v>
+        <v>83600</v>
       </c>
       <c r="H17" s="3">
-        <v>-3700</v>
+        <v>-1900</v>
       </c>
       <c r="I17" s="3">
-        <v>-14200</v>
+        <v>-2800</v>
       </c>
       <c r="J17" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="K17" s="3">
         <v>-22100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>-2100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>-12000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>-19100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>127800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>34400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>200300</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,55 +1274,58 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-2100</v>
+        <v>-800</v>
       </c>
       <c r="F18" s="3">
-        <v>-111400</v>
+        <v>-1600</v>
       </c>
       <c r="G18" s="3">
-        <v>2600</v>
+        <v>-83600</v>
       </c>
       <c r="H18" s="3">
-        <v>3700</v>
+        <v>1900</v>
       </c>
       <c r="I18" s="3">
-        <v>14200</v>
+        <v>2800</v>
       </c>
       <c r="J18" s="3">
+        <v>10700</v>
+      </c>
+      <c r="K18" s="3">
         <v>22100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2100</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="3">
         <v>-1100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-127800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-8000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-3700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-133500</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1346,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1322,55 +1356,58 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>13300</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="H20" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I20" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J20" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L20" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="P20" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>2300</v>
+      </c>
+      <c r="R20" s="3">
+        <v>2700</v>
+      </c>
+      <c r="S20" s="3">
+        <v>2500</v>
+      </c>
+      <c r="T20" s="3">
+        <v>2600</v>
+      </c>
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>-9900</v>
-      </c>
-      <c r="G20" s="3">
-        <v>2900</v>
-      </c>
-      <c r="H20" s="3">
-        <v>2900</v>
-      </c>
-      <c r="I20" s="3">
-        <v>3100</v>
-      </c>
-      <c r="J20" s="3">
-        <v>1500</v>
-      </c>
-      <c r="K20" s="3">
-        <v>2100</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-20100</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-19800</v>
-      </c>
-      <c r="P20" s="3">
-        <v>2300</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>2700</v>
-      </c>
-      <c r="R20" s="3">
-        <v>2500</v>
-      </c>
-      <c r="S20" s="3">
-        <v>2600</v>
-      </c>
-      <c r="T20" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1378,55 +1415,58 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-2000</v>
+        <v>12600</v>
       </c>
       <c r="F21" s="3">
-        <v>-121200</v>
+        <v>-1500</v>
       </c>
       <c r="G21" s="3">
-        <v>5500</v>
+        <v>-91000</v>
       </c>
       <c r="H21" s="3">
-        <v>6700</v>
+        <v>4200</v>
       </c>
       <c r="I21" s="3">
-        <v>17400</v>
+        <v>5000</v>
       </c>
       <c r="J21" s="3">
+        <v>13100</v>
+      </c>
+      <c r="K21" s="3">
         <v>23600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4200</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3">
         <v>-21200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-147500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>6100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-5300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>10600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-116500</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1448,8 +1488,8 @@
       <c r="I22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1475,70 +1515,76 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T22" s="3">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U22" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>16700</v>
+        <v>1300</v>
       </c>
       <c r="E23" s="3">
-        <v>-2000</v>
+        <v>12600</v>
       </c>
       <c r="F23" s="3">
-        <v>-121200</v>
+        <v>-1500</v>
       </c>
       <c r="G23" s="3">
-        <v>5500</v>
+        <v>-91000</v>
       </c>
       <c r="H23" s="3">
-        <v>6700</v>
+        <v>4100</v>
       </c>
       <c r="I23" s="3">
-        <v>17400</v>
+        <v>5000</v>
       </c>
       <c r="J23" s="3">
+        <v>13000</v>
+      </c>
+      <c r="K23" s="3">
         <v>23500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>14700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>21800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-21200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-147500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>6100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-5300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-138600</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1566,14 +1612,14 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>4</v>
+      <c r="L24" s="3">
+        <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="N24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -1588,13 +1634,16 @@
         <v>0</v>
       </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>16700</v>
+        <v>1300</v>
       </c>
       <c r="E26" s="3">
-        <v>-2000</v>
+        <v>12600</v>
       </c>
       <c r="F26" s="3">
-        <v>-121200</v>
+        <v>-1500</v>
       </c>
       <c r="G26" s="3">
-        <v>5500</v>
+        <v>-91000</v>
       </c>
       <c r="H26" s="3">
-        <v>6700</v>
+        <v>4100</v>
       </c>
       <c r="I26" s="3">
-        <v>17400</v>
+        <v>5000</v>
       </c>
       <c r="J26" s="3">
+        <v>13000</v>
+      </c>
+      <c r="K26" s="3">
         <v>23500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>14700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>21800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-21200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-147500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>6100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-5300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-141900</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>16700</v>
+        <v>1300</v>
       </c>
       <c r="E27" s="3">
-        <v>-2000</v>
+        <v>12600</v>
       </c>
       <c r="F27" s="3">
-        <v>-121200</v>
+        <v>-1500</v>
       </c>
       <c r="G27" s="3">
-        <v>5500</v>
+        <v>-91000</v>
       </c>
       <c r="H27" s="3">
-        <v>6700</v>
+        <v>4100</v>
       </c>
       <c r="I27" s="3">
-        <v>17400</v>
+        <v>5000</v>
       </c>
       <c r="J27" s="3">
+        <v>13000</v>
+      </c>
+      <c r="K27" s="3">
         <v>23500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>14700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>21800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-21200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-147500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>6100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-5300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-142300</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2052,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1994,111 +2064,117 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>7400</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="3">
+        <v>20100</v>
+      </c>
+      <c r="P32" s="3">
+        <v>19800</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="R32" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="S32" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="T32" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>9900</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N32" s="3">
-        <v>20100</v>
-      </c>
-      <c r="O32" s="3">
-        <v>19800</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>16700</v>
+        <v>1300</v>
       </c>
       <c r="E33" s="3">
-        <v>-2000</v>
+        <v>12600</v>
       </c>
       <c r="F33" s="3">
-        <v>-121200</v>
+        <v>-1500</v>
       </c>
       <c r="G33" s="3">
-        <v>5500</v>
+        <v>-91000</v>
       </c>
       <c r="H33" s="3">
-        <v>6700</v>
+        <v>4100</v>
       </c>
       <c r="I33" s="3">
-        <v>17400</v>
+        <v>5000</v>
       </c>
       <c r="J33" s="3">
+        <v>13000</v>
+      </c>
+      <c r="K33" s="3">
         <v>23500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>14700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>21800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-21200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-147500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>6100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-5300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-142300</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>16700</v>
+        <v>1300</v>
       </c>
       <c r="E35" s="3">
-        <v>-2000</v>
+        <v>12600</v>
       </c>
       <c r="F35" s="3">
-        <v>-121200</v>
+        <v>-1500</v>
       </c>
       <c r="G35" s="3">
-        <v>5500</v>
+        <v>-91000</v>
       </c>
       <c r="H35" s="3">
-        <v>6700</v>
+        <v>4100</v>
       </c>
       <c r="I35" s="3">
-        <v>17400</v>
+        <v>5000</v>
       </c>
       <c r="J35" s="3">
+        <v>13000</v>
+      </c>
+      <c r="K35" s="3">
         <v>23500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>14700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>21800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-21200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-147500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>6100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-5300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-142300</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2400,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>70600</v>
+        <v>54700</v>
       </c>
       <c r="E41" s="3">
-        <v>67100</v>
+        <v>53000</v>
       </c>
       <c r="F41" s="3">
-        <v>71300</v>
+        <v>50400</v>
       </c>
       <c r="G41" s="3">
-        <v>74400</v>
+        <v>53500</v>
       </c>
       <c r="H41" s="3">
-        <v>78000</v>
+        <v>55800</v>
       </c>
       <c r="I41" s="3">
-        <v>81600</v>
+        <v>58500</v>
       </c>
       <c r="J41" s="3">
-        <v>82800</v>
+        <v>61200</v>
       </c>
       <c r="K41" s="3">
         <v>82800</v>
       </c>
       <c r="L41" s="3">
+        <v>82800</v>
+      </c>
+      <c r="M41" s="3">
         <v>64900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>50600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>31100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>13600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>8800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>10400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>14300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>18800</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,64 +2516,70 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6900</v>
+        <v>2700</v>
       </c>
       <c r="E43" s="3">
-        <v>11600</v>
+        <v>5200</v>
       </c>
       <c r="F43" s="3">
-        <v>9800</v>
+        <v>8700</v>
       </c>
       <c r="G43" s="3">
-        <v>8100</v>
+        <v>7400</v>
       </c>
       <c r="H43" s="3">
-        <v>6500</v>
+        <v>6100</v>
       </c>
       <c r="I43" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="J43" s="3">
         <v>3800</v>
       </c>
       <c r="K43" s="3">
+        <v>3800</v>
+      </c>
+      <c r="L43" s="3">
         <v>3700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,208 +2634,220 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>800</v>
+      </c>
+      <c r="E45" s="3">
         <v>300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
+        <v>500</v>
+      </c>
+      <c r="G45" s="3">
+        <v>800</v>
+      </c>
+      <c r="H45" s="3">
+        <v>900</v>
+      </c>
+      <c r="I45" s="3">
+        <v>200</v>
+      </c>
+      <c r="J45" s="3">
+        <v>500</v>
+      </c>
+      <c r="K45" s="3">
         <v>700</v>
       </c>
-      <c r="F45" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G45" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H45" s="3">
+      <c r="L45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3">
-        <v>600</v>
-      </c>
-      <c r="J45" s="3">
-        <v>700</v>
-      </c>
-      <c r="K45" s="3">
-        <v>1400</v>
-      </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
+        <v>500</v>
+      </c>
+      <c r="O45" s="3">
         <v>300</v>
       </c>
-      <c r="M45" s="3">
-        <v>500</v>
-      </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>200</v>
+      </c>
+      <c r="R45" s="3">
         <v>300</v>
       </c>
-      <c r="O45" s="3">
-        <v>400</v>
-      </c>
-      <c r="P45" s="3">
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="T45" s="3">
         <v>300</v>
       </c>
-      <c r="R45" s="3">
-        <v>200</v>
-      </c>
-      <c r="S45" s="3">
-        <v>300</v>
-      </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>539300</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>77800</v>
+        <v>58300</v>
       </c>
       <c r="E46" s="3">
-        <v>79400</v>
+        <v>58400</v>
       </c>
       <c r="F46" s="3">
-        <v>82100</v>
+        <v>59600</v>
       </c>
       <c r="G46" s="3">
-        <v>83600</v>
+        <v>61700</v>
       </c>
       <c r="H46" s="3">
-        <v>84800</v>
+        <v>62800</v>
       </c>
       <c r="I46" s="3">
-        <v>87200</v>
+        <v>63700</v>
       </c>
       <c r="J46" s="3">
+        <v>65500</v>
+      </c>
+      <c r="K46" s="3">
         <v>87300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>87900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>68200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>54100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>35800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>17100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>8600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>9600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>13100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>15900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>559000</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>114100</v>
+        <v>89000</v>
       </c>
       <c r="E47" s="3">
-        <v>96500</v>
+        <v>85600</v>
       </c>
       <c r="F47" s="3">
-        <v>96500</v>
+        <v>72400</v>
       </c>
       <c r="G47" s="3">
-        <v>215200</v>
+        <v>72400</v>
       </c>
       <c r="H47" s="3">
-        <v>207700</v>
+        <v>161600</v>
       </c>
       <c r="I47" s="3">
-        <v>197300</v>
+        <v>156000</v>
       </c>
       <c r="J47" s="3">
+        <v>148200</v>
+      </c>
+      <c r="K47" s="3">
         <v>183100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>153400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>110600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>108700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>108000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>148100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>304000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>295600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>299400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>298400</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2700</v>
+        <v>2000</v>
       </c>
       <c r="E48" s="3">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="F48" s="3">
-        <v>2800</v>
+        <v>2100</v>
       </c>
       <c r="G48" s="3">
-        <v>2800</v>
+        <v>2100</v>
       </c>
       <c r="H48" s="3">
-        <v>2900</v>
+        <v>2100</v>
       </c>
       <c r="I48" s="3">
-        <v>2900</v>
+        <v>2200</v>
       </c>
       <c r="J48" s="3">
-        <v>800</v>
+        <v>2200</v>
       </c>
       <c r="K48" s="3">
         <v>800</v>
       </c>
       <c r="L48" s="3">
+        <v>800</v>
+      </c>
+      <c r="M48" s="3">
         <v>600</v>
-      </c>
-      <c r="M48" s="3">
-        <v>700</v>
       </c>
       <c r="N48" s="3">
         <v>700</v>
@@ -2748,7 +2856,7 @@
         <v>700</v>
       </c>
       <c r="P48" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="Q48" s="3">
         <v>100</v>
@@ -2762,8 +2870,11 @@
       <c r="T48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3047,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3106,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>194600</v>
+        <v>149300</v>
       </c>
       <c r="E54" s="3">
-        <v>178600</v>
+        <v>146100</v>
       </c>
       <c r="F54" s="3">
-        <v>181400</v>
+        <v>134100</v>
       </c>
       <c r="G54" s="3">
-        <v>301600</v>
+        <v>136200</v>
       </c>
       <c r="H54" s="3">
-        <v>295400</v>
+        <v>226500</v>
       </c>
       <c r="I54" s="3">
-        <v>287400</v>
+        <v>221800</v>
       </c>
       <c r="J54" s="3">
+        <v>215800</v>
+      </c>
+      <c r="K54" s="3">
         <v>271100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>242100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>179400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>163500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>144500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>166000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>312700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>305300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>312600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>314400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>559100</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,64 +3272,68 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I57" s="3">
         <v>2700</v>
       </c>
-      <c r="E57" s="3">
-        <v>2800</v>
-      </c>
-      <c r="F57" s="3">
-        <v>3400</v>
-      </c>
-      <c r="G57" s="3">
-        <v>3700</v>
-      </c>
-      <c r="H57" s="3">
-        <v>3600</v>
-      </c>
-      <c r="I57" s="3">
-        <v>3300</v>
-      </c>
       <c r="J57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K57" s="3">
         <v>4700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3239,14 +3373,14 @@
       <c r="O58" s="3">
         <v>100</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
+      <c r="P58" s="3">
+        <v>100</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -3254,8 +3388,11 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3304,99 +3441,105 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T59" s="3">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U59" s="3">
         <v>241800</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H60" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I60" s="3">
         <v>2800</v>
       </c>
-      <c r="E60" s="3">
-        <v>2900</v>
-      </c>
-      <c r="F60" s="3">
+      <c r="J60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K60" s="3">
+        <v>4800</v>
+      </c>
+      <c r="L60" s="3">
+        <v>5100</v>
+      </c>
+      <c r="M60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="N60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="P60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="R60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="S60" s="3">
         <v>3500</v>
       </c>
-      <c r="G60" s="3">
-        <v>3800</v>
-      </c>
-      <c r="H60" s="3">
-        <v>3700</v>
-      </c>
-      <c r="I60" s="3">
-        <v>3400</v>
-      </c>
-      <c r="J60" s="3">
-        <v>4800</v>
-      </c>
-      <c r="K60" s="3">
-        <v>5100</v>
-      </c>
-      <c r="L60" s="3">
-        <v>2600</v>
-      </c>
-      <c r="M60" s="3">
-        <v>1600</v>
-      </c>
-      <c r="N60" s="3">
-        <v>2300</v>
-      </c>
-      <c r="O60" s="3">
-        <v>2000</v>
-      </c>
-      <c r="P60" s="3">
-        <v>2400</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>1600</v>
-      </c>
-      <c r="R60" s="3">
-        <v>3500</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>247600</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>200</v>
+      </c>
+      <c r="E61" s="3">
         <v>300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
+        <v>300</v>
+      </c>
+      <c r="G61" s="3">
+        <v>300</v>
+      </c>
+      <c r="H61" s="3">
+        <v>300</v>
+      </c>
+      <c r="I61" s="3">
         <v>400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="J61" s="3">
         <v>400</v>
-      </c>
-      <c r="G61" s="3">
-        <v>500</v>
-      </c>
-      <c r="H61" s="3">
-        <v>500</v>
-      </c>
-      <c r="I61" s="3">
-        <v>500</v>
-      </c>
-      <c r="J61" s="3">
-        <v>600</v>
       </c>
       <c r="K61" s="3">
         <v>600</v>
       </c>
       <c r="L61" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M61" s="3">
         <v>500</v>
@@ -3408,7 +3551,7 @@
         <v>500</v>
       </c>
       <c r="P61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="Q61" s="3">
         <v>0</v>
@@ -3422,8 +3565,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3431,55 +3577,58 @@
         <v>400</v>
       </c>
       <c r="E62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F62" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="G62" s="3">
         <v>500</v>
       </c>
       <c r="H62" s="3">
+        <v>400</v>
+      </c>
+      <c r="I62" s="3">
+        <v>500</v>
+      </c>
+      <c r="J62" s="3">
+        <v>400</v>
+      </c>
+      <c r="K62" s="3">
+        <v>900</v>
+      </c>
+      <c r="L62" s="3">
         <v>600</v>
       </c>
-      <c r="I62" s="3">
-        <v>600</v>
-      </c>
-      <c r="J62" s="3">
-        <v>900</v>
-      </c>
-      <c r="K62" s="3">
-        <v>600</v>
-      </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>400</v>
-      </c>
-      <c r="O62" s="3">
-        <v>300</v>
       </c>
       <c r="P62" s="3">
         <v>300</v>
       </c>
       <c r="Q62" s="3">
+        <v>300</v>
+      </c>
+      <c r="R62" s="3">
         <v>100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3500</v>
+        <v>4300</v>
       </c>
       <c r="E66" s="3">
-        <v>3700</v>
+        <v>2700</v>
       </c>
       <c r="F66" s="3">
-        <v>4600</v>
+        <v>2800</v>
       </c>
       <c r="G66" s="3">
-        <v>4800</v>
+        <v>3400</v>
       </c>
       <c r="H66" s="3">
-        <v>4800</v>
+        <v>3600</v>
       </c>
       <c r="I66" s="3">
-        <v>4500</v>
+        <v>3600</v>
       </c>
       <c r="J66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K66" s="3">
         <v>6300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>249400</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-649500</v>
+        <v>-434600</v>
       </c>
       <c r="E72" s="3">
-        <v>-666200</v>
+        <v>-436100</v>
       </c>
       <c r="F72" s="3">
-        <v>-664200</v>
+        <v>-448300</v>
       </c>
       <c r="G72" s="3">
-        <v>-542900</v>
+        <v>-446800</v>
       </c>
       <c r="H72" s="3">
-        <v>-548400</v>
+        <v>-356700</v>
       </c>
       <c r="I72" s="3">
-        <v>-555100</v>
+        <v>-361400</v>
       </c>
       <c r="J72" s="3">
+        <v>-366700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-572400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-583700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-450700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-465400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-487200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-466000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-318500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-275200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-270000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-269300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-269200</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>191000</v>
+        <v>145000</v>
       </c>
       <c r="E76" s="3">
-        <v>174900</v>
+        <v>143500</v>
       </c>
       <c r="F76" s="3">
-        <v>176800</v>
+        <v>131300</v>
       </c>
       <c r="G76" s="3">
-        <v>296800</v>
+        <v>132800</v>
       </c>
       <c r="H76" s="3">
-        <v>290600</v>
+        <v>222900</v>
       </c>
       <c r="I76" s="3">
-        <v>282900</v>
+        <v>218200</v>
       </c>
       <c r="J76" s="3">
+        <v>212400</v>
+      </c>
+      <c r="K76" s="3">
         <v>264900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>235800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>176100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>160900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>141300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>163100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>310000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>303700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>308800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>309500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>309700</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>16700</v>
+        <v>1300</v>
       </c>
       <c r="E81" s="3">
-        <v>-2000</v>
+        <v>12600</v>
       </c>
       <c r="F81" s="3">
-        <v>-121200</v>
+        <v>-1500</v>
       </c>
       <c r="G81" s="3">
-        <v>5500</v>
+        <v>-91000</v>
       </c>
       <c r="H81" s="3">
-        <v>6700</v>
+        <v>4100</v>
       </c>
       <c r="I81" s="3">
-        <v>17400</v>
+        <v>5000</v>
       </c>
       <c r="J81" s="3">
+        <v>13000</v>
+      </c>
+      <c r="K81" s="3">
         <v>23500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>14700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>21800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-21200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-147500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>6100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-5300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-142300</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4447,13 +4646,13 @@
         <v>0</v>
       </c>
       <c r="J83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K83" s="3">
         <v>100</v>
       </c>
       <c r="L83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -4474,13 +4673,16 @@
         <v>0</v>
       </c>
       <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
         <v>11700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>16900</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3400</v>
+        <v>1500</v>
       </c>
       <c r="E89" s="3">
-        <v>-4200</v>
+        <v>2600</v>
       </c>
       <c r="F89" s="3">
-        <v>-3000</v>
+        <v>-3200</v>
       </c>
       <c r="G89" s="3">
-        <v>-3800</v>
+        <v>-2300</v>
       </c>
       <c r="H89" s="3">
-        <v>-4200</v>
+        <v>-2800</v>
       </c>
       <c r="I89" s="3">
-        <v>-6200</v>
+        <v>-3100</v>
       </c>
       <c r="J89" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="K89" s="3">
         <v>-2100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-3500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>13400</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5057,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4888,13 +5109,16 @@
         <v>0</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-4300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-22900</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,13 +5232,16 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E94" s="3">
         <v>100</v>
@@ -5020,49 +5250,52 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H94" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="I94" s="3">
-        <v>4700</v>
+        <v>300</v>
       </c>
       <c r="J94" s="3">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>15200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>22500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>20100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>10000</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-26400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>158100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-22900</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5550,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5322,35 +5568,35 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>200</v>
-      </c>
       <c r="I100" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="J100" s="3">
         <v>200</v>
       </c>
       <c r="K100" s="3">
+        <v>200</v>
+      </c>
+      <c r="L100" s="3">
         <v>1700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
@@ -5358,18 +5604,21 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>-164900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -5387,20 +5636,20 @@
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-200</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
@@ -5414,65 +5663,71 @@
         <v>0</v>
       </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3500</v>
+        <v>1700</v>
       </c>
       <c r="E102" s="3">
-        <v>-4200</v>
+        <v>2600</v>
       </c>
       <c r="F102" s="3">
         <v>-3100</v>
       </c>
       <c r="G102" s="3">
-        <v>-3600</v>
+        <v>-2300</v>
       </c>
       <c r="H102" s="3">
-        <v>-3600</v>
+        <v>-2700</v>
       </c>
       <c r="I102" s="3">
-        <v>-1200</v>
+        <v>-2700</v>
       </c>
       <c r="J102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>14400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>19500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>17500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>6800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-28300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-3800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>3900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GAU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GAU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
   <si>
     <t>GAU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,100 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -782,17 +789,17 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
@@ -804,13 +811,19 @@
         <v>0</v>
       </c>
       <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
         <v>30700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>66800</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -862,14 +875,20 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T9" s="3">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="3">
         <v>33400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>50700</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -921,14 +940,20 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T10" s="3">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3">
         <v>-2700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,19 +975,21 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E12" s="3">
+        <v>900</v>
+      </c>
+      <c r="F12" s="3">
         <v>300</v>
-      </c>
-      <c r="E12" s="3">
-        <v>100</v>
-      </c>
-      <c r="F12" s="3">
-        <v>100</v>
       </c>
       <c r="G12" s="3">
         <v>100</v>
@@ -971,14 +998,14 @@
         <v>100</v>
       </c>
       <c r="I12" s="3">
+        <v>100</v>
+      </c>
+      <c r="J12" s="3">
+        <v>100</v>
+      </c>
+      <c r="K12" s="3">
         <v>400</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1003,14 +1030,20 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T12" s="3">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="3">
         <v>400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,29 +1101,35 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
+      <c r="E14" s="3">
+        <v>-6000</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3">
         <v>7600</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1106,29 +1145,35 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>-1300</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>144600</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1154,14 +1199,14 @@
         <v>0</v>
       </c>
       <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
         <v>100</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
       <c r="N15" s="3">
         <v>0</v>
       </c>
@@ -1171,11 +1216,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>4</v>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>4</v>
@@ -1186,8 +1231,14 @@
       <c r="U15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,67 +1257,75 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>-50100</v>
+      </c>
+      <c r="F17" s="3">
         <v>2400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>83600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>-1900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>-2800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>-10700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>-22100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>-2100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>-12000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>-19100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>127800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>-3800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>8000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>3400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>34400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>200300</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1274,58 +1333,64 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>50100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="G18" s="3">
         <v>-800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-83600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>1900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>2800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>10700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>22100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>2100</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-1100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-127800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>3800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-8000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-3400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-3700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-133500</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,8 +1412,10 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1356,58 +1423,64 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="F20" s="3">
+        <v>3700</v>
+      </c>
+      <c r="G20" s="3">
         <v>13300</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-7400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>2200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>2200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>2300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>1500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>2100</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-20100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-19800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>2300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>2700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>2500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>2600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1415,58 +1488,64 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>28500</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G21" s="3">
         <v>12600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-91000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>4200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>5000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>13100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>23600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>4200</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-21200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-147500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>6100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-5300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>10600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-116500</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1491,11 +1570,11 @@
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1518,73 +1597,85 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>4</v>
+      <c r="T22" s="3">
+        <v>0</v>
       </c>
       <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W22" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>28500</v>
+      </c>
+      <c r="F23" s="3">
         <v>1300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>12600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-91000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>4100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>5000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>13000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>23500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>4200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>14700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>21800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-21200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-147500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>6100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-5300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-1100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-138600</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1615,17 +1706,17 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
@@ -1637,13 +1728,19 @@
         <v>0</v>
       </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1798,144 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>28500</v>
+      </c>
+      <c r="F26" s="3">
         <v>1300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>12600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-91000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>4100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>5000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>13000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>23500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>4200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>14700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>21800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-21200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-147500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>6100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-5300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-1200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-141900</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>28500</v>
+      </c>
+      <c r="F27" s="3">
         <v>1300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>12600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-91000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>4100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>5000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>13000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>23500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>4200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>14700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>21800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-21200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-147500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>6100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-5300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-142300</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1993,14 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +2058,14 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2123,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,8 +2188,14 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2064,117 +2203,129 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>21600</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="G32" s="3">
         <v>-13300</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>7400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-2200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-2200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-2300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-1500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-2100</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="3">
         <v>20100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>19800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-2300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-2700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-2500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-2600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>28500</v>
+      </c>
+      <c r="F33" s="3">
         <v>1300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>12600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-91000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>4100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>5000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>13000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>23500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>4200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>14700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>21800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-21200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-147500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>6100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-5300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-142300</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2383,149 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>28500</v>
+      </c>
+      <c r="F35" s="3">
         <v>1300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>12600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-91000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>4100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>5000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>13000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>23500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>4200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>14700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>21800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-21200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-147500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>6100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-5300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-142300</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2547,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2572,75 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>56200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>56100</v>
+      </c>
+      <c r="F41" s="3">
         <v>54700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>53000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>50400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>53500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>55800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>58500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>61200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>82800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>82800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>64900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>50600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>31100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>13600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>6800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>8800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>10400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>14300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>18800</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,67 +2698,79 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F43" s="3">
         <v>2700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>5200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>8700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>7400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>6100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>4900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>3800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>3800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>3700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>3000</v>
-      </c>
-      <c r="N43" s="3">
-        <v>3100</v>
-      </c>
-      <c r="O43" s="3">
-        <v>4300</v>
       </c>
       <c r="P43" s="3">
         <v>3100</v>
       </c>
       <c r="Q43" s="3">
+        <v>4300</v>
+      </c>
+      <c r="R43" s="3">
+        <v>3100</v>
+      </c>
+      <c r="S43" s="3">
         <v>1600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>2600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>1400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,55 +2828,61 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>700</v>
+      </c>
+      <c r="E45" s="3">
         <v>800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
+        <v>800</v>
+      </c>
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1400</v>
-      </c>
-      <c r="M45" s="3">
-        <v>300</v>
-      </c>
-      <c r="N45" s="3">
-        <v>500</v>
       </c>
       <c r="O45" s="3">
         <v>300</v>
       </c>
       <c r="P45" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>300</v>
+      </c>
+      <c r="R45" s="3">
         <v>400</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>200</v>
-      </c>
-      <c r="R45" s="3">
-        <v>300</v>
       </c>
       <c r="S45" s="3">
         <v>200</v>
@@ -2694,175 +2891,193 @@
         <v>300</v>
       </c>
       <c r="U45" s="3">
+        <v>200</v>
+      </c>
+      <c r="V45" s="3">
+        <v>300</v>
+      </c>
+      <c r="W45" s="3">
         <v>539300</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>57400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>58600</v>
+      </c>
+      <c r="F46" s="3">
         <v>58300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>58400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>59600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>61700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>62800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>63700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>65500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>87300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>87900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>68200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>54100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>35800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>17100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>8600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>9600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>13100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>15900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>559000</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>132600</v>
+      </c>
+      <c r="E47" s="3">
+        <v>121000</v>
+      </c>
+      <c r="F47" s="3">
         <v>89000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>85600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>72400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>72400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>161600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>156000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>148200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>183100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>153400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>110600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>108700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>108000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>148100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>304000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>295600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>299400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>298400</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>300</v>
+      </c>
+      <c r="F48" s="3">
         <v>2000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2000</v>
-      </c>
-      <c r="F48" s="3">
-        <v>2100</v>
-      </c>
-      <c r="G48" s="3">
-        <v>2100</v>
       </c>
       <c r="H48" s="3">
         <v>2100</v>
       </c>
       <c r="I48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K48" s="3">
         <v>2200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>600</v>
-      </c>
-      <c r="N48" s="3">
-        <v>700</v>
-      </c>
-      <c r="O48" s="3">
-        <v>700</v>
       </c>
       <c r="P48" s="3">
         <v>700</v>
       </c>
       <c r="Q48" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="R48" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="S48" s="3">
         <v>100</v>
@@ -2873,8 +3088,14 @@
       <c r="U48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>100</v>
+      </c>
+      <c r="W48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2932,8 +3153,14 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3218,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3283,14 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3109,8 +3348,14 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3413,79 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>190300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>179900</v>
+      </c>
+      <c r="F54" s="3">
         <v>149300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>146100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>134100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>136200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>226500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>221800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>215800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>271100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>242100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>179400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>163500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>144500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>166000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>312700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>305300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>312600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>314400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>559100</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3507,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,67 +3532,75 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F57" s="3">
         <v>3500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>2000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>4700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>5000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>2200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>2400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>1600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>3500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>4700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3376,46 +3643,52 @@
       <c r="P58" s="3">
         <v>100</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
-      <c r="T58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3">
+        <v>100</v>
+      </c>
+      <c r="R58" s="3">
+        <v>100</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
+        <v>1400</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -3444,73 +3717,85 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>4</v>
+      <c r="T59" s="3">
+        <v>0</v>
       </c>
       <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W59" s="3">
         <v>241800</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F60" s="3">
         <v>3600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>4800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>5100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>3500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>4700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>247600</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3518,10 +3803,10 @@
         <v>200</v>
       </c>
       <c r="E61" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F61" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G61" s="3">
         <v>300</v>
@@ -3530,22 +3815,22 @@
         <v>300</v>
       </c>
       <c r="I61" s="3">
+        <v>300</v>
+      </c>
+      <c r="J61" s="3">
+        <v>300</v>
+      </c>
+      <c r="K61" s="3">
         <v>400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>600</v>
-      </c>
-      <c r="M61" s="3">
-        <v>500</v>
-      </c>
-      <c r="N61" s="3">
-        <v>500</v>
       </c>
       <c r="O61" s="3">
         <v>500</v>
@@ -3554,10 +3839,10 @@
         <v>500</v>
       </c>
       <c r="Q61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="R61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="S61" s="3">
         <v>0</v>
@@ -3568,25 +3853,31 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>200</v>
+      </c>
+      <c r="F62" s="3">
         <v>400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>300</v>
-      </c>
-      <c r="G62" s="3">
-        <v>500</v>
-      </c>
-      <c r="H62" s="3">
-        <v>400</v>
       </c>
       <c r="I62" s="3">
         <v>500</v>
@@ -3595,40 +3886,46 @@
         <v>400</v>
       </c>
       <c r="K62" s="3">
+        <v>500</v>
+      </c>
+      <c r="L62" s="3">
+        <v>400</v>
+      </c>
+      <c r="M62" s="3">
         <v>900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>300</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>300</v>
-      </c>
-      <c r="R62" s="3">
-        <v>100</v>
       </c>
       <c r="S62" s="3">
         <v>300</v>
       </c>
       <c r="T62" s="3">
+        <v>100</v>
+      </c>
+      <c r="U62" s="3">
+        <v>300</v>
+      </c>
+      <c r="V62" s="3">
         <v>200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3983,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +4048,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +4113,79 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F66" s="3">
         <v>4300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>3600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>3600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>6300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>6400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>3200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>2600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>3800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>4900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>249400</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4207,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4268,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4333,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4398,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4463,79 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-397200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-405900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-434600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-436100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-448300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-446800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-356700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-361400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-366700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-572400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-583700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-450700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-465400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-487200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-466000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-318500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-275200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-270000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-269300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-269200</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4593,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4658,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4723,79 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>182400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>173700</v>
+      </c>
+      <c r="F76" s="3">
         <v>145000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>143500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>131300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>132800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>222900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>218200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>212400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>264900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>235800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>176100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>160900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>141300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>163100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>310000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>303700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>308800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>309500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>309700</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4853,149 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>28500</v>
+      </c>
+      <c r="F81" s="3">
         <v>1300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>12600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-91000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>4100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>5000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>13000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>23500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>4200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>14700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>21800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-21200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-147500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>6100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-5300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-142300</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +5017,10 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4649,17 +5046,17 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
         <v>100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>100</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
@@ -4676,13 +5073,19 @@
         <v>0</v>
       </c>
       <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
         <v>11700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>16900</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +5143,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5208,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5273,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5338,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5403,79 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>800</v>
+      </c>
+      <c r="F89" s="3">
         <v>1500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>2600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-3200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-2300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-2800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-3100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-4700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-2100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-3900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-1000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-1600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-2000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-1600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-1900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>2900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>13400</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5497,10 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5112,13 +5553,19 @@
         <v>0</v>
       </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-4300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-22900</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5623,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5688,79 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>500</v>
+      </c>
+      <c r="F94" s="3">
         <v>300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>3500</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>15200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>22500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>20100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>10000</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-26400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>158100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-22900</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5782,10 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5843,14 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5908,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5973,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,8 +6038,14 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5571,61 +6062,67 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>1700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-2000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-1000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>300</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>-164900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
@@ -5639,7 +6136,7 @@
         <v>0</v>
       </c>
       <c r="K101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -5648,14 +6145,14 @@
         <v>100</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>100</v>
+      </c>
+      <c r="P101" s="3">
         <v>-200</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
@@ -5666,68 +6163,80 @@
         <v>0</v>
       </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F102" s="3">
         <v>1700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>2600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-3100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-2300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-2700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-2700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-1800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-1900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>14400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>19500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>17500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>6800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-2000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-1500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-28300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-3800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>3900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GAU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GAU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
   <si>
     <t>GAU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,14 +799,14 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>4</v>
+      <c r="O8" s="3">
+        <v>0</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
+      <c r="Q8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
@@ -817,13 +821,16 @@
         <v>0</v>
       </c>
       <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
         <v>30700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>66800</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -881,14 +888,17 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V9" s="3">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W9" s="3">
         <v>33400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>50700</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -946,14 +956,17 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V10" s="3">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W10" s="3">
         <v>-2700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,22 +990,23 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>500</v>
+      </c>
+      <c r="E12" s="3">
         <v>1400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>300</v>
-      </c>
-      <c r="G12" s="3">
-        <v>100</v>
       </c>
       <c r="H12" s="3">
         <v>100</v>
@@ -1004,11 +1018,11 @@
         <v>100</v>
       </c>
       <c r="K12" s="3">
+        <v>100</v>
+      </c>
+      <c r="L12" s="3">
         <v>400</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1036,14 +1050,17 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V12" s="3">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W12" s="3">
         <v>400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,32 +1124,35 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
         <v>-6000</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
         <v>7600</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1151,8 +1171,8 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1160,20 +1180,23 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>-1300</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>144600</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1205,11 +1228,11 @@
         <v>0</v>
       </c>
       <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
         <v>100</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
       <c r="O15" s="3">
         <v>0</v>
       </c>
@@ -1222,8 +1245,8 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>4</v>
+      <c r="S15" s="3">
+        <v>0</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>4</v>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,73 +1285,77 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E17" s="3">
         <v>-5500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>-50100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>83600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>-1900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>-2800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>-10700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>-22100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>-2100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>-12000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>-19100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>127800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>-3800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>34400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>200300</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1333,64 +1363,67 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F18" s="3">
         <v>50100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-83600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>10700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>22100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2100</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R18" s="3">
         <v>-1100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-127800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-8000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-3400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-3700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-133500</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1423,64 +1457,67 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-21600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>13300</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-7400</v>
-      </c>
-      <c r="J20" s="3">
-        <v>2200</v>
       </c>
       <c r="K20" s="3">
         <v>2200</v>
       </c>
       <c r="L20" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M20" s="3">
         <v>2300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2100</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R20" s="3">
         <v>-20100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-19800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>2600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1488,64 +1525,67 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>8500</v>
+      </c>
+      <c r="F21" s="3">
         <v>28500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>12600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-91000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>5000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>13100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>23600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4200</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3">
         <v>-21200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-147500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>6100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-5300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>10600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-116500</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1576,8 +1616,8 @@
       <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1603,79 +1643,85 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W22" s="3">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X22" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E23" s="3">
         <v>8500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>28500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>12600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-91000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>13000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>23500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>14700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>21800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-21200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-147500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>6100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-5300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-138600</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1712,14 +1758,14 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>4</v>
+      <c r="O24" s="3">
+        <v>0</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
+      <c r="Q24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
@@ -1734,13 +1780,16 @@
         <v>0</v>
       </c>
       <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E26" s="3">
         <v>8500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>28500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>12600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-91000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>4100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>13000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>23500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>14700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>21800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-21200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-147500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>6100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-5300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-141900</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E27" s="3">
         <v>8500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>28500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>12600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-91000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>4100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>13000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>23500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>14700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>21800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-21200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-147500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>6100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-5300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-142300</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2203,129 +2273,135 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F32" s="3">
         <v>21600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-13300</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>7400</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-2200</v>
       </c>
       <c r="K32" s="3">
         <v>-2200</v>
       </c>
       <c r="L32" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="M32" s="3">
         <v>-2300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2100</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R32" s="3">
         <v>20100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>19800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-2600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E33" s="3">
         <v>8500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>28500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>12600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-91000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>4100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>13000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>23500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>14700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>21800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-21200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-147500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>6100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-5300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-142300</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E35" s="3">
         <v>8500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>28500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>12600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-91000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>4100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>13000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>23500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>14700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>21800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-21200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-147500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>6100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-5300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-142300</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>55500</v>
+      </c>
+      <c r="E41" s="3">
         <v>56200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>56100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>54700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>53000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>50400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>53500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>55800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>58500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>61200</v>
-      </c>
-      <c r="M41" s="3">
-        <v>82800</v>
       </c>
       <c r="N41" s="3">
         <v>82800</v>
       </c>
       <c r="O41" s="3">
+        <v>82800</v>
+      </c>
+      <c r="P41" s="3">
         <v>64900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>50600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>31100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>13600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>8800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>10400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>14300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>18800</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,8 +2794,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2713,64 +2806,67 @@
         <v>500</v>
       </c>
       <c r="E43" s="3">
+        <v>500</v>
+      </c>
+      <c r="F43" s="3">
         <v>1700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>7400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>6100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4900</v>
-      </c>
-      <c r="L43" s="3">
-        <v>3800</v>
       </c>
       <c r="M43" s="3">
         <v>3800</v>
       </c>
       <c r="N43" s="3">
+        <v>3800</v>
+      </c>
+      <c r="O43" s="3">
         <v>3700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,203 +2930,215 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>400</v>
+      </c>
+      <c r="E45" s="3">
         <v>700</v>
-      </c>
-      <c r="E45" s="3">
-        <v>800</v>
       </c>
       <c r="F45" s="3">
         <v>800</v>
       </c>
       <c r="G45" s="3">
+        <v>800</v>
+      </c>
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>539300</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>56400</v>
+      </c>
+      <c r="E46" s="3">
         <v>57400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>58600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>58300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>58400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>59600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>61700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>62800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>63700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>65500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>87300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>87900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>68200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>54100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>35800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>17100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>8600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>9600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>13100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>15900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>559000</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>146000</v>
+      </c>
+      <c r="E47" s="3">
         <v>132600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>121000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>89000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>85600</v>
-      </c>
-      <c r="H47" s="3">
-        <v>72400</v>
       </c>
       <c r="I47" s="3">
         <v>72400</v>
       </c>
       <c r="J47" s="3">
+        <v>72400</v>
+      </c>
+      <c r="K47" s="3">
         <v>161600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>156000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>148200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>183100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>153400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>110600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>108700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>108000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>148100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>304000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>295600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>299400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>298400</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3041,13 +3149,13 @@
         <v>300</v>
       </c>
       <c r="F48" s="3">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="G48" s="3">
         <v>2000</v>
       </c>
       <c r="H48" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="I48" s="3">
         <v>2100</v>
@@ -3056,22 +3164,22 @@
         <v>2100</v>
       </c>
       <c r="K48" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="L48" s="3">
         <v>2200</v>
       </c>
       <c r="M48" s="3">
-        <v>800</v>
+        <v>2200</v>
       </c>
       <c r="N48" s="3">
         <v>800</v>
       </c>
       <c r="O48" s="3">
+        <v>800</v>
+      </c>
+      <c r="P48" s="3">
         <v>600</v>
-      </c>
-      <c r="P48" s="3">
-        <v>700</v>
       </c>
       <c r="Q48" s="3">
         <v>700</v>
@@ -3080,7 +3188,7 @@
         <v>700</v>
       </c>
       <c r="S48" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="T48" s="3">
         <v>100</v>
@@ -3094,8 +3202,11 @@
       <c r="W48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>202800</v>
+      </c>
+      <c r="E54" s="3">
         <v>190300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>179900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>149300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>146100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>134100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>136200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>226500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>221800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>215800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>271100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>242100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>179400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>163500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>144500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>166000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>312700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>305300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>312600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>314400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>559100</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,73 +3664,77 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E57" s="3">
         <v>4800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3649,14 +3783,14 @@
       <c r="R58" s="3">
         <v>100</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>4</v>
+      <c r="S58" s="3">
+        <v>100</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="U58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
@@ -3664,20 +3798,23 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E59" s="3">
         <v>2600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1400</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3690,8 +3827,8 @@
       <c r="J59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
+      <c r="K59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
@@ -3723,84 +3860,90 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W59" s="3">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X59" s="3">
         <v>241800</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E60" s="3">
         <v>7500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>247600</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E61" s="3">
         <v>200</v>
@@ -3809,7 +3952,7 @@
         <v>200</v>
       </c>
       <c r="G61" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H61" s="3">
         <v>300</v>
@@ -3821,19 +3964,19 @@
         <v>300</v>
       </c>
       <c r="K61" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L61" s="3">
         <v>400</v>
       </c>
       <c r="M61" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N61" s="3">
         <v>600</v>
       </c>
       <c r="O61" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="P61" s="3">
         <v>500</v>
@@ -3845,7 +3988,7 @@
         <v>500</v>
       </c>
       <c r="S61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="T61" s="3">
         <v>0</v>
@@ -3859,73 +4002,79 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>100</v>
+      </c>
+      <c r="E62" s="3">
         <v>300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>400</v>
-      </c>
-      <c r="G62" s="3">
-        <v>300</v>
       </c>
       <c r="H62" s="3">
         <v>300</v>
       </c>
       <c r="I62" s="3">
+        <v>300</v>
+      </c>
+      <c r="J62" s="3">
         <v>500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>400</v>
-      </c>
-      <c r="R62" s="3">
-        <v>300</v>
       </c>
       <c r="S62" s="3">
         <v>300</v>
       </c>
       <c r="T62" s="3">
+        <v>300</v>
+      </c>
+      <c r="U62" s="3">
         <v>100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E66" s="3">
         <v>7900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3400</v>
-      </c>
-      <c r="J66" s="3">
-        <v>3600</v>
       </c>
       <c r="K66" s="3">
         <v>3600</v>
       </c>
       <c r="L66" s="3">
+        <v>3600</v>
+      </c>
+      <c r="M66" s="3">
         <v>3400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>249400</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-384900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-397200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-405900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-434600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-436100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-448300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-446800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-356700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-361400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-366700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-572400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-583700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-450700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-465400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-487200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-466000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-318500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-275200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-270000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-269300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-269200</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>194700</v>
+      </c>
+      <c r="E76" s="3">
         <v>182400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>173700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>145000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>143500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>131300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>132800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>222900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>218200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>212400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>264900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>235800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>176100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>160900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>141300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>163100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>310000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>303700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>308800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>309500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>309700</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E81" s="3">
         <v>8500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>28500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>12600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-91000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>4100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>13000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>23500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>14700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>21800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-21200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-147500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>6100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-5300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-142300</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5052,13 +5251,13 @@
         <v>0</v>
       </c>
       <c r="M83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N83" s="3">
         <v>100</v>
       </c>
       <c r="O83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -5079,13 +5278,16 @@
         <v>0</v>
       </c>
       <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
         <v>11700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>16900</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-3900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-3500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-2000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>13400</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5559,13 +5780,16 @@
         <v>0</v>
       </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
         <v>-4300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-22900</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,26 +5921,29 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>700</v>
+      </c>
+      <c r="E94" s="3">
         <v>600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -5721,46 +5951,49 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>3500</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>15200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>22500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>20100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>10000</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-26400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>158100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-22900</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6068,35 +6314,35 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
         <v>100</v>
       </c>
       <c r="L100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
         <v>200</v>
       </c>
       <c r="N100" s="3">
+        <v>200</v>
+      </c>
+      <c r="O100" s="3">
         <v>1700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>300</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
@@ -6104,13 +6350,16 @@
         <v>0</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>-164900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6121,11 +6370,11 @@
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
@@ -6142,20 +6391,20 @@
         <v>0</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-200</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
         <v>0</v>
       </c>
@@ -6169,74 +6418,80 @@
         <v>0</v>
       </c>
       <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
         <v>100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2300</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-2700</v>
       </c>
       <c r="K102" s="3">
         <v>-2700</v>
       </c>
       <c r="L102" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="M102" s="3">
         <v>-900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>14400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>19500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>17500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>6800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-28300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-3800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>3900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GAU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GAU_QTR_FIN.xlsx
@@ -997,25 +997,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E12" s="3">
-        <v>1400</v>
+        <v>1900</v>
       </c>
       <c r="F12" s="3">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="G12" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H12" s="3">
         <v>100</v>
       </c>
       <c r="I12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K12" s="3">
         <v>100</v>
@@ -1139,7 +1139,7 @@
         <v>4</v>
       </c>
       <c r="F14" s="3">
-        <v>-6000</v>
+        <v>-8300</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
@@ -1151,7 +1151,7 @@
         <v>4</v>
       </c>
       <c r="J14" s="3">
-        <v>7600</v>
+        <v>10500</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
@@ -1213,13 +1213,13 @@
         <v>0</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1292,25 +1292,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>-8800</v>
+        <v>-12100</v>
       </c>
       <c r="E17" s="3">
-        <v>-5500</v>
+        <v>-7500</v>
       </c>
       <c r="F17" s="3">
-        <v>-50100</v>
+        <v>-69000</v>
       </c>
       <c r="G17" s="3">
-        <v>2400</v>
+        <v>3300</v>
       </c>
       <c r="H17" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="I17" s="3">
-        <v>1600</v>
+        <v>2200</v>
       </c>
       <c r="J17" s="3">
-        <v>83600</v>
+        <v>115000</v>
       </c>
       <c r="K17" s="3">
         <v>-1900</v>
@@ -1363,22 +1363,22 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="F18" s="3">
-        <v>50100</v>
+        <v>69000</v>
       </c>
       <c r="G18" s="3">
-        <v>-2400</v>
+        <v>-3300</v>
       </c>
       <c r="H18" s="3">
-        <v>-800</v>
+        <v>-1000</v>
       </c>
       <c r="I18" s="3">
-        <v>-1600</v>
+        <v>-2200</v>
       </c>
       <c r="J18" s="3">
-        <v>-83600</v>
+        <v>-115000</v>
       </c>
       <c r="K18" s="3">
         <v>1900</v>
@@ -1457,22 +1457,22 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>3000</v>
+        <v>4200</v>
       </c>
       <c r="F20" s="3">
-        <v>-21600</v>
+        <v>-29800</v>
       </c>
       <c r="G20" s="3">
-        <v>3700</v>
+        <v>5000</v>
       </c>
       <c r="H20" s="3">
-        <v>13300</v>
+        <v>18300</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J20" s="3">
-        <v>-7400</v>
+        <v>-10200</v>
       </c>
       <c r="K20" s="3">
         <v>2200</v>
@@ -1525,22 +1525,22 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>8500</v>
+        <v>11700</v>
       </c>
       <c r="F21" s="3">
-        <v>28500</v>
+        <v>39300</v>
       </c>
       <c r="G21" s="3">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="H21" s="3">
-        <v>12600</v>
+        <v>17300</v>
       </c>
       <c r="I21" s="3">
-        <v>-1500</v>
+        <v>-2100</v>
       </c>
       <c r="J21" s="3">
-        <v>-91000</v>
+        <v>-125200</v>
       </c>
       <c r="K21" s="3">
         <v>4200</v>
@@ -1658,25 +1658,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>12000</v>
+        <v>16500</v>
       </c>
       <c r="E23" s="3">
-        <v>8500</v>
+        <v>11700</v>
       </c>
       <c r="F23" s="3">
-        <v>28500</v>
+        <v>39200</v>
       </c>
       <c r="G23" s="3">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="H23" s="3">
-        <v>12600</v>
+        <v>17300</v>
       </c>
       <c r="I23" s="3">
-        <v>-1500</v>
+        <v>-2100</v>
       </c>
       <c r="J23" s="3">
-        <v>-91000</v>
+        <v>-125200</v>
       </c>
       <c r="K23" s="3">
         <v>4100</v>
@@ -1862,25 +1862,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>12000</v>
+        <v>16500</v>
       </c>
       <c r="E26" s="3">
-        <v>8500</v>
+        <v>11700</v>
       </c>
       <c r="F26" s="3">
-        <v>28500</v>
+        <v>39200</v>
       </c>
       <c r="G26" s="3">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="H26" s="3">
-        <v>12600</v>
+        <v>17300</v>
       </c>
       <c r="I26" s="3">
-        <v>-1500</v>
+        <v>-2100</v>
       </c>
       <c r="J26" s="3">
-        <v>-91000</v>
+        <v>-125200</v>
       </c>
       <c r="K26" s="3">
         <v>4100</v>
@@ -1930,25 +1930,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>12000</v>
+        <v>16500</v>
       </c>
       <c r="E27" s="3">
-        <v>8500</v>
+        <v>11700</v>
       </c>
       <c r="F27" s="3">
-        <v>28500</v>
+        <v>39200</v>
       </c>
       <c r="G27" s="3">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="H27" s="3">
-        <v>12600</v>
+        <v>17300</v>
       </c>
       <c r="I27" s="3">
-        <v>-1500</v>
+        <v>-2100</v>
       </c>
       <c r="J27" s="3">
-        <v>-91000</v>
+        <v>-125200</v>
       </c>
       <c r="K27" s="3">
         <v>4100</v>
@@ -2273,22 +2273,22 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>-3000</v>
+        <v>-4200</v>
       </c>
       <c r="F32" s="3">
-        <v>21600</v>
+        <v>29800</v>
       </c>
       <c r="G32" s="3">
-        <v>-3700</v>
+        <v>-5000</v>
       </c>
       <c r="H32" s="3">
-        <v>-13300</v>
+        <v>-18300</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J32" s="3">
-        <v>7400</v>
+        <v>10200</v>
       </c>
       <c r="K32" s="3">
         <v>-2200</v>
@@ -2338,25 +2338,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>12000</v>
+        <v>16500</v>
       </c>
       <c r="E33" s="3">
-        <v>8500</v>
+        <v>11700</v>
       </c>
       <c r="F33" s="3">
-        <v>28500</v>
+        <v>39200</v>
       </c>
       <c r="G33" s="3">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="H33" s="3">
-        <v>12600</v>
+        <v>17300</v>
       </c>
       <c r="I33" s="3">
-        <v>-1500</v>
+        <v>-2100</v>
       </c>
       <c r="J33" s="3">
-        <v>-91000</v>
+        <v>-125200</v>
       </c>
       <c r="K33" s="3">
         <v>4100</v>
@@ -2474,25 +2474,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>12000</v>
+        <v>16500</v>
       </c>
       <c r="E35" s="3">
-        <v>8500</v>
+        <v>11700</v>
       </c>
       <c r="F35" s="3">
-        <v>28500</v>
+        <v>39200</v>
       </c>
       <c r="G35" s="3">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="H35" s="3">
-        <v>12600</v>
+        <v>17300</v>
       </c>
       <c r="I35" s="3">
-        <v>-1500</v>
+        <v>-2100</v>
       </c>
       <c r="J35" s="3">
-        <v>-91000</v>
+        <v>-125200</v>
       </c>
       <c r="K35" s="3">
         <v>4100</v>
@@ -2667,25 +2667,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>55500</v>
+        <v>76300</v>
       </c>
       <c r="E41" s="3">
-        <v>56200</v>
+        <v>77300</v>
       </c>
       <c r="F41" s="3">
-        <v>56100</v>
+        <v>77200</v>
       </c>
       <c r="G41" s="3">
-        <v>54700</v>
+        <v>75300</v>
       </c>
       <c r="H41" s="3">
-        <v>53000</v>
+        <v>72900</v>
       </c>
       <c r="I41" s="3">
-        <v>50400</v>
+        <v>69300</v>
       </c>
       <c r="J41" s="3">
-        <v>53500</v>
+        <v>73600</v>
       </c>
       <c r="K41" s="3">
         <v>55800</v>
@@ -2803,25 +2803,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E43" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="F43" s="3">
-        <v>1700</v>
+        <v>2400</v>
       </c>
       <c r="G43" s="3">
-        <v>2700</v>
+        <v>3800</v>
       </c>
       <c r="H43" s="3">
-        <v>5200</v>
+        <v>7100</v>
       </c>
       <c r="I43" s="3">
-        <v>8700</v>
+        <v>12000</v>
       </c>
       <c r="J43" s="3">
-        <v>7400</v>
+        <v>10200</v>
       </c>
       <c r="K43" s="3">
         <v>6100</v>
@@ -2939,25 +2939,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E45" s="3">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="F45" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="G45" s="3">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="H45" s="3">
         <v>300</v>
       </c>
       <c r="I45" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="J45" s="3">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K45" s="3">
         <v>900</v>
@@ -3007,25 +3007,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>56400</v>
+        <v>77600</v>
       </c>
       <c r="E46" s="3">
-        <v>57400</v>
+        <v>79000</v>
       </c>
       <c r="F46" s="3">
-        <v>58600</v>
+        <v>80600</v>
       </c>
       <c r="G46" s="3">
-        <v>58300</v>
+        <v>80200</v>
       </c>
       <c r="H46" s="3">
-        <v>58400</v>
+        <v>80400</v>
       </c>
       <c r="I46" s="3">
-        <v>59600</v>
+        <v>82000</v>
       </c>
       <c r="J46" s="3">
-        <v>61700</v>
+        <v>84800</v>
       </c>
       <c r="K46" s="3">
         <v>62800</v>
@@ -3075,25 +3075,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>146000</v>
+        <v>200900</v>
       </c>
       <c r="E47" s="3">
-        <v>132600</v>
+        <v>182400</v>
       </c>
       <c r="F47" s="3">
-        <v>121000</v>
+        <v>166400</v>
       </c>
       <c r="G47" s="3">
-        <v>89000</v>
+        <v>122400</v>
       </c>
       <c r="H47" s="3">
-        <v>85600</v>
+        <v>117800</v>
       </c>
       <c r="I47" s="3">
-        <v>72400</v>
+        <v>99600</v>
       </c>
       <c r="J47" s="3">
-        <v>72400</v>
+        <v>99600</v>
       </c>
       <c r="K47" s="3">
         <v>161600</v>
@@ -3143,25 +3143,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E48" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F48" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G48" s="3">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="H48" s="3">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="I48" s="3">
-        <v>2100</v>
+        <v>2800</v>
       </c>
       <c r="J48" s="3">
-        <v>2100</v>
+        <v>2900</v>
       </c>
       <c r="K48" s="3">
         <v>2100</v>
@@ -3551,25 +3551,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>202800</v>
+        <v>278900</v>
       </c>
       <c r="E54" s="3">
-        <v>190300</v>
+        <v>261800</v>
       </c>
       <c r="F54" s="3">
-        <v>179900</v>
+        <v>247400</v>
       </c>
       <c r="G54" s="3">
-        <v>149300</v>
+        <v>205300</v>
       </c>
       <c r="H54" s="3">
-        <v>146100</v>
+        <v>201000</v>
       </c>
       <c r="I54" s="3">
-        <v>134100</v>
+        <v>184500</v>
       </c>
       <c r="J54" s="3">
-        <v>136200</v>
+        <v>187300</v>
       </c>
       <c r="K54" s="3">
         <v>226500</v>
@@ -3671,25 +3671,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4700</v>
+        <v>6400</v>
       </c>
       <c r="E57" s="3">
-        <v>4800</v>
+        <v>6600</v>
       </c>
       <c r="F57" s="3">
-        <v>4300</v>
+        <v>6000</v>
       </c>
       <c r="G57" s="3">
+        <v>4900</v>
+      </c>
+      <c r="H57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J57" s="3">
         <v>3500</v>
-      </c>
-      <c r="H57" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I57" s="3">
-        <v>2100</v>
-      </c>
-      <c r="J57" s="3">
-        <v>2500</v>
       </c>
       <c r="K57" s="3">
         <v>2800</v>
@@ -3739,13 +3739,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G58" s="3">
         <v>100</v>
@@ -3754,7 +3754,7 @@
         <v>100</v>
       </c>
       <c r="I58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J58" s="3">
         <v>100</v>
@@ -3807,13 +3807,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3100</v>
+        <v>4300</v>
       </c>
       <c r="E59" s="3">
-        <v>2600</v>
+        <v>3600</v>
       </c>
       <c r="F59" s="3">
-        <v>1400</v>
+        <v>1900</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>4</v>
@@ -3875,25 +3875,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7900</v>
+        <v>10800</v>
       </c>
       <c r="E60" s="3">
-        <v>7500</v>
+        <v>10300</v>
       </c>
       <c r="F60" s="3">
-        <v>5800</v>
+        <v>8000</v>
       </c>
       <c r="G60" s="3">
+        <v>5000</v>
+      </c>
+      <c r="H60" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J60" s="3">
         <v>3600</v>
-      </c>
-      <c r="H60" s="3">
-        <v>2100</v>
-      </c>
-      <c r="I60" s="3">
-        <v>2200</v>
-      </c>
-      <c r="J60" s="3">
-        <v>2600</v>
       </c>
       <c r="K60" s="3">
         <v>2900</v>
@@ -3943,25 +3943,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E61" s="3">
         <v>200</v>
       </c>
       <c r="F61" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G61" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H61" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I61" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J61" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K61" s="3">
         <v>300</v>
@@ -4014,22 +4014,22 @@
         <v>100</v>
       </c>
       <c r="E62" s="3">
+        <v>400</v>
+      </c>
+      <c r="F62" s="3">
         <v>300</v>
       </c>
-      <c r="F62" s="3">
-        <v>200</v>
-      </c>
       <c r="G62" s="3">
+        <v>600</v>
+      </c>
+      <c r="H62" s="3">
         <v>400</v>
       </c>
-      <c r="H62" s="3">
-        <v>300</v>
-      </c>
       <c r="I62" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J62" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K62" s="3">
         <v>400</v>
@@ -4283,25 +4283,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8100</v>
+        <v>11100</v>
       </c>
       <c r="E66" s="3">
-        <v>7900</v>
+        <v>10900</v>
       </c>
       <c r="F66" s="3">
-        <v>6200</v>
+        <v>8500</v>
       </c>
       <c r="G66" s="3">
-        <v>4300</v>
+        <v>5900</v>
       </c>
       <c r="H66" s="3">
-        <v>2700</v>
+        <v>3700</v>
       </c>
       <c r="I66" s="3">
-        <v>2800</v>
+        <v>3800</v>
       </c>
       <c r="J66" s="3">
-        <v>3400</v>
+        <v>4700</v>
       </c>
       <c r="K66" s="3">
         <v>3600</v>
@@ -4649,25 +4649,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-384900</v>
+        <v>-529500</v>
       </c>
       <c r="E72" s="3">
-        <v>-397200</v>
+        <v>-546300</v>
       </c>
       <c r="F72" s="3">
-        <v>-405900</v>
+        <v>-558300</v>
       </c>
       <c r="G72" s="3">
-        <v>-434600</v>
+        <v>-597800</v>
       </c>
       <c r="H72" s="3">
-        <v>-436100</v>
+        <v>-599900</v>
       </c>
       <c r="I72" s="3">
-        <v>-448300</v>
+        <v>-616600</v>
       </c>
       <c r="J72" s="3">
-        <v>-446800</v>
+        <v>-614600</v>
       </c>
       <c r="K72" s="3">
         <v>-356700</v>
@@ -4921,25 +4921,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>194700</v>
+        <v>267800</v>
       </c>
       <c r="E76" s="3">
-        <v>182400</v>
+        <v>250900</v>
       </c>
       <c r="F76" s="3">
-        <v>173700</v>
+        <v>238900</v>
       </c>
       <c r="G76" s="3">
-        <v>145000</v>
+        <v>199400</v>
       </c>
       <c r="H76" s="3">
-        <v>143500</v>
+        <v>197300</v>
       </c>
       <c r="I76" s="3">
-        <v>131300</v>
+        <v>180700</v>
       </c>
       <c r="J76" s="3">
-        <v>132800</v>
+        <v>182600</v>
       </c>
       <c r="K76" s="3">
         <v>222900</v>
@@ -5130,25 +5130,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>12000</v>
+        <v>16500</v>
       </c>
       <c r="E81" s="3">
-        <v>8500</v>
+        <v>11700</v>
       </c>
       <c r="F81" s="3">
-        <v>28500</v>
+        <v>39200</v>
       </c>
       <c r="G81" s="3">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="H81" s="3">
-        <v>12600</v>
+        <v>17300</v>
       </c>
       <c r="I81" s="3">
-        <v>-1500</v>
+        <v>-2100</v>
       </c>
       <c r="J81" s="3">
-        <v>-91000</v>
+        <v>-125200</v>
       </c>
       <c r="K81" s="3">
         <v>4100</v>
@@ -5236,13 +5236,13 @@
         <v>0</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -5632,25 +5632,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1400</v>
+        <v>-1900</v>
       </c>
       <c r="E89" s="3">
-        <v>-500</v>
+        <v>-700</v>
       </c>
       <c r="F89" s="3">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="G89" s="3">
-        <v>1500</v>
+        <v>2100</v>
       </c>
       <c r="H89" s="3">
-        <v>2600</v>
+        <v>3500</v>
       </c>
       <c r="I89" s="3">
-        <v>-3200</v>
+        <v>-4400</v>
       </c>
       <c r="J89" s="3">
-        <v>-2300</v>
+        <v>-3100</v>
       </c>
       <c r="K89" s="3">
         <v>-2800</v>
@@ -5930,22 +5930,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>900</v>
+      </c>
+      <c r="F94" s="3">
         <v>700</v>
       </c>
-      <c r="E94" s="3">
-        <v>600</v>
-      </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>500</v>
       </c>
-      <c r="G94" s="3">
-        <v>300</v>
-      </c>
       <c r="H94" s="3">
+        <v>200</v>
+      </c>
+      <c r="I94" s="3">
         <v>100</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
@@ -6370,10 +6370,10 @@
         <v>0</v>
       </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G101" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -6432,25 +6432,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-700</v>
+        <v>-900</v>
       </c>
       <c r="E102" s="3">
         <v>100</v>
       </c>
       <c r="F102" s="3">
-        <v>1400</v>
+        <v>1900</v>
       </c>
       <c r="G102" s="3">
-        <v>1700</v>
+        <v>2400</v>
       </c>
       <c r="H102" s="3">
-        <v>2600</v>
+        <v>3600</v>
       </c>
       <c r="I102" s="3">
-        <v>-3100</v>
+        <v>-4300</v>
       </c>
       <c r="J102" s="3">
-        <v>-2300</v>
+        <v>-3200</v>
       </c>
       <c r="K102" s="3">
         <v>-2700</v>
